--- a/metadata/lcms/todo/Northwestern RTI (LC-MS).xlsx
+++ b/metadata/lcms/todo/Northwestern RTI (LC-MS).xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H77"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -431,12 +431,12 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>SCN400</t>
+          <t>cIMS</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>cIMS</t>
+          <t>In-House</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
@@ -473,17 +473,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>STELLARIS 5</t>
+          <t>TWIMS</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>TWIMS</t>
+          <t>IonOpticks</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>IonOpticks</t>
+          <t>Evosep</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -510,17 +510,17 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>BZ-X710</t>
+          <t>DTIMS</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>DTIMS</t>
+          <t>Evosep</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Evosep</t>
+          <t>Thermo Fisher Scientific</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -542,17 +542,17 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Pannoramic MIDI II Digital Scanner</t>
+          <t>SLIM</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>SLIM</t>
+          <t>Thermo Fisher Scientific</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Thermo Fisher Scientific</t>
+          <t>Agilent Technologies</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -569,17 +569,17 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>TIMS</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>TIMS</t>
+          <t>Agilent Technologies</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Bruker</t>
+          <t>Sciex</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -596,519 +596,41 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>MoticEasyScan One</t>
+          <t>FAIMS</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>FAIMS</t>
+          <t>Millipore</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
+          <t>Bruker</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>LCM</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Bruker</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>Waters</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>LCM</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>EVOS M7000</t>
-        </is>
-      </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>NovaSeq X</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>NanoZoomer 2.0-HT</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>timsTOF Ultra 2</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Lightsheet 7</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Phenocycler-Fusion 1.0</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>DNBSEQ-T7</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>timsTOF Pro</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>AVITI</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>timsTOF Pro 2</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Q Exactive UHMR</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Q Exactive</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>timsTOF SCP</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Zyla 4.2 sCMOS</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Helios</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>uScopeHXII-20</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>Custom: Multiphoton</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>QTRAP 5500</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>timsTOF Ultra</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>BZ-X800</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>CyTOF 2</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>G4X Spatial Sequencer</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>NextSeq 500</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>NanoZoomer S360</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>Hyperion Imaging System</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>NovaSeq X Plus</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>CyTOF XT</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>NanoZoomer-SQ</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>NextSeq 550</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>Axio Zoom.V16</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>Digital Spatial Profiler</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>timsTOF FleX</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>timsTOF FleX MALDI-2</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>NanoZoomer S210</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>BZ-X810</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>Axio Observer 7</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>Cytek Northern Lights</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>IN Cell Analyzer 2200</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>timsTOF HT</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>PhenoImager Fusion</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>DM6 B</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>Phenocycler-Fusion 2.0</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>Aperio CS2</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>Orbitrap Fusion Lumos Tribrid</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>Resolve Biosciences Molecular Cartography</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>MALDI timsTOF Flex Prototype</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>TissueScope LE Slide Scanner</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>VS200 Slide Scanner</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>Axio Observer 5</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>Axio Observer 3</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>HiSeq 2500</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>Orbitrap Eclipse Tribrid</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>Cell DIVE</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>MERSCOPE</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>NextSeq 2000</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>NovaSeq 6000</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>In-House</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>HiSeq 4000</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>solariX</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>Panoramic 150 Digital Scanner</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>Aperio AT2</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>MIBIscope</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>Biomark HD</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>NanoZoomer S60</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>CosMx Spatial Molecular Imager</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>MERSCOPE Ultra</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>Axio Scan.Z1</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>Juno System</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>Q Exactive HF</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>Xenium Analyzer</t>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Waters</t>
         </is>
       </c>
     </row>
@@ -1166,14 +688,10 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>acquisition_instrument_model</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Dionex; UltiMate 3000 RSLCnano UHPLC System</t>
-        </is>
-      </c>
+          <t>ion_mobility</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr">
         <is>
@@ -1189,10 +707,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ion_mobility</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr"/>
+          <t>lc_column_vendor</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Self-packed</t>
+        </is>
+      </c>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
@@ -1208,12 +730,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>lc_column_vendor</t>
+          <t>lc_instrument_vendor</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Self-packed</t>
+          <t>Dionex</t>
         </is>
       </c>
       <c r="D4" t="inlineStr"/>
@@ -1315,14 +837,10 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>acquisition_instrument_model</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Dionex; UltiMate 3000 RSLCnano UHPLC System</t>
-        </is>
-      </c>
+          <t>ion_mobility</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr">
         <is>
@@ -1338,10 +856,14 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ion_mobility</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr"/>
+          <t>lc_column_vendor</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Self-packed</t>
+        </is>
+      </c>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr">
         <is>
@@ -1357,12 +879,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>lc_column_vendor</t>
+          <t>lc_instrument_vendor</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Self-packed</t>
+          <t>Dionex</t>
         </is>
       </c>
       <c r="D11" t="inlineStr"/>
@@ -1464,14 +986,10 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>acquisition_instrument_model</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>Dionex; UltiMate 3000 RSLCnano UHPLC System</t>
-        </is>
-      </c>
+          <t>ion_mobility</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr">
         <is>
@@ -1487,10 +1005,14 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>ion_mobility</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr"/>
+          <t>lc_column_vendor</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Self-packed</t>
+        </is>
+      </c>
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr">
         <is>
@@ -1506,12 +1028,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>lc_column_vendor</t>
+          <t>lc_instrument_vendor</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Self-packed</t>
+          <t>Dionex</t>
         </is>
       </c>
       <c r="D18" t="inlineStr"/>
@@ -1613,14 +1135,10 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>acquisition_instrument_model</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>Dionex; UltiMate 3000 RSLCnano UHPLC System</t>
-        </is>
-      </c>
+          <t>ion_mobility</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr">
         <is>
@@ -1636,10 +1154,14 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>ion_mobility</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr"/>
+          <t>lc_column_vendor</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Self-packed</t>
+        </is>
+      </c>
       <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr">
         <is>
@@ -1655,12 +1177,12 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>lc_column_vendor</t>
+          <t>lc_instrument_vendor</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Self-packed</t>
+          <t>Dionex</t>
         </is>
       </c>
       <c r="D25" t="inlineStr"/>
@@ -1762,14 +1284,10 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>acquisition_instrument_model</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>Dionex; UltiMate 3000 RSLCnano UHPLC System</t>
-        </is>
-      </c>
+          <t>ion_mobility</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr">
         <is>
@@ -1785,10 +1303,14 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>ion_mobility</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr"/>
+          <t>lc_column_vendor</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Self-packed</t>
+        </is>
+      </c>
       <c r="D31" t="inlineStr"/>
       <c r="E31" t="inlineStr">
         <is>
@@ -1804,12 +1326,12 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>lc_column_vendor</t>
+          <t>lc_instrument_vendor</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Self-packed</t>
+          <t>Dionex</t>
         </is>
       </c>
       <c r="D32" t="inlineStr"/>
@@ -1911,14 +1433,10 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>acquisition_instrument_model</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>Dionex; UltiMate 3000 RSLCnano UHPLC System</t>
-        </is>
-      </c>
+          <t>ion_mobility</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr"/>
       <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr">
         <is>
@@ -1934,10 +1452,14 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>ion_mobility</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr"/>
+          <t>lc_column_vendor</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Self-packed</t>
+        </is>
+      </c>
       <c r="D38" t="inlineStr"/>
       <c r="E38" t="inlineStr">
         <is>
@@ -1953,12 +1475,12 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>lc_column_vendor</t>
+          <t>lc_instrument_vendor</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Self-packed</t>
+          <t>Dionex</t>
         </is>
       </c>
       <c r="D39" t="inlineStr"/>
@@ -2060,14 +1582,10 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>acquisition_instrument_model</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>Dionex; UltiMate 3000 RSLCnano UHPLC System</t>
-        </is>
-      </c>
+          <t>ion_mobility</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr"/>
       <c r="D44" t="inlineStr"/>
       <c r="E44" t="inlineStr">
         <is>
@@ -2083,10 +1601,14 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>ion_mobility</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr"/>
+          <t>lc_column_vendor</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Self-packed</t>
+        </is>
+      </c>
       <c r="D45" t="inlineStr"/>
       <c r="E45" t="inlineStr">
         <is>
@@ -2102,12 +1624,12 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>lc_column_vendor</t>
+          <t>lc_instrument_vendor</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Self-packed</t>
+          <t>Dionex</t>
         </is>
       </c>
       <c r="D46" t="inlineStr"/>
@@ -2209,14 +1731,10 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>acquisition_instrument_model</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>Dionex; UltiMate 3000 RSLCnano UHPLC System</t>
-        </is>
-      </c>
+          <t>ion_mobility</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr"/>
       <c r="D51" t="inlineStr"/>
       <c r="E51" t="inlineStr">
         <is>
@@ -2232,10 +1750,14 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>ion_mobility</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr"/>
+          <t>lc_column_vendor</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Self-packed</t>
+        </is>
+      </c>
       <c r="D52" t="inlineStr"/>
       <c r="E52" t="inlineStr">
         <is>
@@ -2251,12 +1773,12 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>lc_column_vendor</t>
+          <t>lc_instrument_vendor</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Self-packed</t>
+          <t>Dionex</t>
         </is>
       </c>
       <c r="D53" t="inlineStr"/>
@@ -2358,14 +1880,10 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>acquisition_instrument_model</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>Dionex; UltiMate 3000 RSLCnano UHPLC System</t>
-        </is>
-      </c>
+          <t>ion_mobility</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr"/>
       <c r="D58" t="inlineStr"/>
       <c r="E58" t="inlineStr">
         <is>
@@ -2381,10 +1899,14 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>ion_mobility</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr"/>
+          <t>lc_column_vendor</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Self-packed</t>
+        </is>
+      </c>
       <c r="D59" t="inlineStr"/>
       <c r="E59" t="inlineStr">
         <is>
@@ -2400,12 +1922,12 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>lc_column_vendor</t>
+          <t>lc_instrument_vendor</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Self-packed</t>
+          <t>Dionex</t>
         </is>
       </c>
       <c r="D60" t="inlineStr"/>
@@ -2507,14 +2029,10 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>acquisition_instrument_model</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>Dionex; UltiMate 3000 RSLCnano UHPLC System</t>
-        </is>
-      </c>
+          <t>ion_mobility</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr"/>
       <c r="D65" t="inlineStr"/>
       <c r="E65" t="inlineStr">
         <is>
@@ -2530,10 +2048,14 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>ion_mobility</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr"/>
+          <t>lc_column_vendor</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Self-packed</t>
+        </is>
+      </c>
       <c r="D66" t="inlineStr"/>
       <c r="E66" t="inlineStr">
         <is>
@@ -2549,12 +2071,12 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>lc_column_vendor</t>
+          <t>lc_instrument_vendor</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Self-packed</t>
+          <t>Dionex</t>
         </is>
       </c>
       <c r="D67" t="inlineStr"/>
@@ -2652,13 +2174,13 @@
   <autoFilter ref="A1:E71"/>
   <dataValidations count="7">
     <dataValidation sqref="D2 D9 D16 D23 D30 D37 D44 D51 D58 D65" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
-      <formula1>_validation_data!$A$1:$A$77</formula1>
+      <formula1>_validation_data!$A$1:$A$6</formula1>
     </dataValidation>
     <dataValidation sqref="D3 D10 D17 D24 D31 D38 D45 D52 D59 D66" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
-      <formula1>_validation_data!$B$1:$B$6</formula1>
+      <formula1>_validation_data!$B$1:$B$8</formula1>
     </dataValidation>
     <dataValidation sqref="D4 D11 D18 D25 D32 D39 D46 D53 D60 D67" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
-      <formula1>_validation_data!$C$1:$C$6</formula1>
+      <formula1>_validation_data!$C$1:$C$7</formula1>
     </dataValidation>
     <dataValidation sqref="D5 D12 D19 D26 D33 D40 D47 D54 D61 D68" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
       <formula1>_validation_data!$D$1:$D$1</formula1>

--- a/metadata/lcms/todo/Northwestern RTI (LC-MS).xlsx
+++ b/metadata/lcms/todo/Northwestern RTI (LC-MS).xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -431,12 +431,12 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
+          <t>SCN400</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
           <t>cIMS</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>In-House</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
@@ -473,17 +473,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>STELLARIS 5</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
           <t>TWIMS</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>IonOpticks</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Evosep</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -510,17 +510,17 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>BZ-X710</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>DTIMS</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>Evosep</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Thermo Fisher Scientific</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -542,17 +542,17 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>Pannoramic MIDI II Digital Scanner</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>SLIM</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>Thermo Fisher Scientific</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Agilent Technologies</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -569,17 +569,17 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>Not applicable</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>TIMS</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>Agilent Technologies</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Sciex</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -596,41 +596,529 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>MoticEasyScan One</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>FAIMS</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Millipore</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>LCM</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>EVOS M7000</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
         <is>
           <t>Bruker</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>LCM</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Bruker</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>NovaSeq X</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
         <is>
           <t>Waters</t>
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Waters</t>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>NanoZoomer 2.0-HT</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>timsTOF Ultra 2</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Lightsheet 7</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Phenocycler-Fusion 1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>DNBSEQ-T7</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>timsTOF Pro</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>AVITI</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>timsTOF Pro 2</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Q Exactive UHMR</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Q Exactive</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>timsTOF SCP</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Zyla 4.2 sCMOS</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Helios</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>uScopeHXII-20</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Custom: Multiphoton</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>QTRAP 5500</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>timsTOF Ultra</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>BZ-X800</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>CyTOF 2</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>G4X Spatial Sequencer</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>NextSeq 500</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>NanoZoomer S360</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Hyperion Imaging System</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>NovaSeq X Plus</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>CyTOF XT</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>NanoZoomer-SQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>NextSeq 550</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Axio Zoom.V16</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Digital Spatial Profiler</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>timsTOF FleX</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>timsTOF FleX MALDI-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>NanoZoomer S210</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>BZ-X810</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Axio Observer 7</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Cytek Northern Lights</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>IN Cell Analyzer 2200</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>timsTOF HT</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>PhenoImager Fusion</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>DM6 B</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Phenocycler-Fusion 2.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Aperio CS2</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Orbitrap Fusion Lumos Tribrid</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Resolve Biosciences Molecular Cartography</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>MALDI timsTOF Flex Prototype</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>TissueScope LE Slide Scanner</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>VS200 Slide Scanner</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Axio Observer 5</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Axio Observer 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>HiSeq 2500</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Orbitrap Eclipse Tribrid</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Cell DIVE</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>MERSCOPE</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>NextSeq 2000</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>NovaSeq 6000</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>In-House</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>HiSeq 4000</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>solariX</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Panoramic 150 Digital Scanner</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Aperio AT2</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>MIBIscope</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Biomark HD</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>NanoZoomer S60</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>CosMx Spatial Molecular Imager</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>MERSCOPE Ultra</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Axio Scan.Z1</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Juno System</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Q Exactive HF</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Xenium Analyzer</t>
         </is>
       </c>
     </row>
@@ -688,10 +1176,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ion_mobility</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr"/>
+          <t>acquisition_instrument_model</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Dionex; UltiMate 3000 RSLCnano UHPLC System</t>
+        </is>
+      </c>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr">
         <is>
@@ -707,14 +1199,10 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>lc_column_vendor</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Self-packed</t>
-        </is>
-      </c>
+          <t>ion_mobility</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
@@ -730,12 +1218,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>lc_instrument_vendor</t>
+          <t>lc_column_vendor</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Dionex</t>
+          <t>Self-packed</t>
         </is>
       </c>
       <c r="D4" t="inlineStr"/>
@@ -837,10 +1325,14 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ion_mobility</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr"/>
+          <t>acquisition_instrument_model</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Dionex; UltiMate 3000 RSLCnano UHPLC System</t>
+        </is>
+      </c>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr">
         <is>
@@ -856,14 +1348,10 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>lc_column_vendor</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Self-packed</t>
-        </is>
-      </c>
+          <t>ion_mobility</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr">
         <is>
@@ -879,12 +1367,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>lc_instrument_vendor</t>
+          <t>lc_column_vendor</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Dionex</t>
+          <t>Self-packed</t>
         </is>
       </c>
       <c r="D11" t="inlineStr"/>
@@ -986,10 +1474,14 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>ion_mobility</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr"/>
+          <t>acquisition_instrument_model</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Dionex; UltiMate 3000 RSLCnano UHPLC System</t>
+        </is>
+      </c>
       <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr">
         <is>
@@ -1005,14 +1497,10 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>lc_column_vendor</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>Self-packed</t>
-        </is>
-      </c>
+          <t>ion_mobility</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr">
         <is>
@@ -1028,12 +1516,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>lc_instrument_vendor</t>
+          <t>lc_column_vendor</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Dionex</t>
+          <t>Self-packed</t>
         </is>
       </c>
       <c r="D18" t="inlineStr"/>
@@ -1135,10 +1623,14 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>ion_mobility</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr"/>
+          <t>acquisition_instrument_model</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Dionex; UltiMate 3000 RSLCnano UHPLC System</t>
+        </is>
+      </c>
       <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr">
         <is>
@@ -1154,14 +1646,10 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>lc_column_vendor</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>Self-packed</t>
-        </is>
-      </c>
+          <t>ion_mobility</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr">
         <is>
@@ -1177,12 +1665,12 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>lc_instrument_vendor</t>
+          <t>lc_column_vendor</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Dionex</t>
+          <t>Self-packed</t>
         </is>
       </c>
       <c r="D25" t="inlineStr"/>
@@ -1284,10 +1772,14 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>ion_mobility</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr"/>
+          <t>acquisition_instrument_model</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Dionex; UltiMate 3000 RSLCnano UHPLC System</t>
+        </is>
+      </c>
       <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr">
         <is>
@@ -1303,14 +1795,10 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>lc_column_vendor</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>Self-packed</t>
-        </is>
-      </c>
+          <t>ion_mobility</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr"/>
       <c r="E31" t="inlineStr">
         <is>
@@ -1326,12 +1814,12 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>lc_instrument_vendor</t>
+          <t>lc_column_vendor</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Dionex</t>
+          <t>Self-packed</t>
         </is>
       </c>
       <c r="D32" t="inlineStr"/>
@@ -1433,10 +1921,14 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>ion_mobility</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr"/>
+          <t>acquisition_instrument_model</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Dionex; UltiMate 3000 RSLCnano UHPLC System</t>
+        </is>
+      </c>
       <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr">
         <is>
@@ -1452,14 +1944,10 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>lc_column_vendor</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>Self-packed</t>
-        </is>
-      </c>
+          <t>ion_mobility</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr"/>
       <c r="D38" t="inlineStr"/>
       <c r="E38" t="inlineStr">
         <is>
@@ -1475,12 +1963,12 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>lc_instrument_vendor</t>
+          <t>lc_column_vendor</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Dionex</t>
+          <t>Self-packed</t>
         </is>
       </c>
       <c r="D39" t="inlineStr"/>
@@ -1582,10 +2070,14 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>ion_mobility</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr"/>
+          <t>acquisition_instrument_model</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Dionex; UltiMate 3000 RSLCnano UHPLC System</t>
+        </is>
+      </c>
       <c r="D44" t="inlineStr"/>
       <c r="E44" t="inlineStr">
         <is>
@@ -1601,14 +2093,10 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>lc_column_vendor</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>Self-packed</t>
-        </is>
-      </c>
+          <t>ion_mobility</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr"/>
       <c r="D45" t="inlineStr"/>
       <c r="E45" t="inlineStr">
         <is>
@@ -1624,12 +2112,12 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>lc_instrument_vendor</t>
+          <t>lc_column_vendor</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Dionex</t>
+          <t>Self-packed</t>
         </is>
       </c>
       <c r="D46" t="inlineStr"/>
@@ -1731,10 +2219,14 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>ion_mobility</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr"/>
+          <t>acquisition_instrument_model</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Dionex; UltiMate 3000 RSLCnano UHPLC System</t>
+        </is>
+      </c>
       <c r="D51" t="inlineStr"/>
       <c r="E51" t="inlineStr">
         <is>
@@ -1750,14 +2242,10 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>lc_column_vendor</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>Self-packed</t>
-        </is>
-      </c>
+          <t>ion_mobility</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr"/>
       <c r="D52" t="inlineStr"/>
       <c r="E52" t="inlineStr">
         <is>
@@ -1773,12 +2261,12 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>lc_instrument_vendor</t>
+          <t>lc_column_vendor</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Dionex</t>
+          <t>Self-packed</t>
         </is>
       </c>
       <c r="D53" t="inlineStr"/>
@@ -1880,10 +2368,14 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>ion_mobility</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr"/>
+          <t>acquisition_instrument_model</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Dionex; UltiMate 3000 RSLCnano UHPLC System</t>
+        </is>
+      </c>
       <c r="D58" t="inlineStr"/>
       <c r="E58" t="inlineStr">
         <is>
@@ -1899,14 +2391,10 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>lc_column_vendor</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>Self-packed</t>
-        </is>
-      </c>
+          <t>ion_mobility</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr"/>
       <c r="D59" t="inlineStr"/>
       <c r="E59" t="inlineStr">
         <is>
@@ -1922,12 +2410,12 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>lc_instrument_vendor</t>
+          <t>lc_column_vendor</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Dionex</t>
+          <t>Self-packed</t>
         </is>
       </c>
       <c r="D60" t="inlineStr"/>
@@ -2029,10 +2517,14 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>ion_mobility</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr"/>
+          <t>acquisition_instrument_model</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Dionex; UltiMate 3000 RSLCnano UHPLC System</t>
+        </is>
+      </c>
       <c r="D65" t="inlineStr"/>
       <c r="E65" t="inlineStr">
         <is>
@@ -2048,14 +2540,10 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>lc_column_vendor</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>Self-packed</t>
-        </is>
-      </c>
+          <t>ion_mobility</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr"/>
       <c r="D66" t="inlineStr"/>
       <c r="E66" t="inlineStr">
         <is>
@@ -2071,12 +2559,12 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>lc_instrument_vendor</t>
+          <t>lc_column_vendor</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Dionex</t>
+          <t>Self-packed</t>
         </is>
       </c>
       <c r="D67" t="inlineStr"/>
@@ -2174,13 +2662,13 @@
   <autoFilter ref="A1:E71"/>
   <dataValidations count="7">
     <dataValidation sqref="D2 D9 D16 D23 D30 D37 D44 D51 D58 D65" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
-      <formula1>_validation_data!$A$1:$A$6</formula1>
+      <formula1>_validation_data!$A$1:$A$77</formula1>
     </dataValidation>
     <dataValidation sqref="D3 D10 D17 D24 D31 D38 D45 D52 D59 D66" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
-      <formula1>_validation_data!$B$1:$B$8</formula1>
+      <formula1>_validation_data!$B$1:$B$6</formula1>
     </dataValidation>
     <dataValidation sqref="D4 D11 D18 D25 D32 D39 D46 D53 D60 D67" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
-      <formula1>_validation_data!$C$1:$C$7</formula1>
+      <formula1>_validation_data!$C$1:$C$8</formula1>
     </dataValidation>
     <dataValidation sqref="D5 D12 D19 D26 D33 D40 D47 D54 D61 D68" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
       <formula1>_validation_data!$D$1:$D$1</formula1>

--- a/metadata/lcms/todo/Northwestern RTI (LC-MS).xlsx
+++ b/metadata/lcms/todo/Northwestern RTI (LC-MS).xlsx
@@ -13,7 +13,7 @@
     <sheet name="Invalid Input Pattern" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Non-Standard Value'!$A$1:$E$71</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Non-Standard Value'!$A$1:$E$81</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Missing Required Value'!$A$1:$D$21</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Invalid Input Pattern'!$A$1:$F$11</definedName>
   </definedNames>
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H77"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -431,12 +431,12 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>SCN400</t>
+          <t>cIMS</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>cIMS</t>
+          <t>In-House</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
@@ -451,20 +451,25 @@
       </c>
       <c r="E1" t="inlineStr">
         <is>
+          <t>Negative ion mode</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
           <t>MS1</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>hour</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>microPOTS</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>Profiling</t>
         </is>
@@ -473,35 +478,40 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>STELLARIS 5</t>
+          <t>TWIMS</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>TWIMS</t>
+          <t>IonOpticks</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>IonOpticks</t>
+          <t>Evosep</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
+          <t>Positive ion mode</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
           <t>MS3</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>month</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>nanoSPLITS</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>Imaging</t>
         </is>
@@ -510,30 +520,35 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>BZ-X710</t>
+          <t>DTIMS</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>DTIMS</t>
+          <t>Evosep</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Evosep</t>
+          <t>Thermo Fisher Scientific</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
+          <t>Negative and positive ion mode</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
           <t>MS2</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>year</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>LESA</t>
         </is>
@@ -542,25 +557,25 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Pannoramic MIDI II Digital Scanner</t>
+          <t>SLIM</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>SLIM</t>
+          <t>Thermo Fisher Scientific</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Thermo Fisher Scientific</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
+          <t>Agilent Technologies</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
         <is>
           <t>day</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>microLESA</t>
         </is>
@@ -569,25 +584,25 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>TIMS</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>TIMS</t>
+          <t>Agilent Technologies</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Agilent Technologies</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
+          <t>Sciex</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
         <is>
           <t>minute</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>nanoPOTS</t>
         </is>
@@ -596,529 +611,41 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>MoticEasyScan One</t>
+          <t>FAIMS</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>FAIMS</t>
+          <t>Millipore</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Millipore</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
+          <t>Bruker</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
         <is>
           <t>LCM</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>EVOS M7000</t>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Bruker</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Bruker</t>
+          <t>Waters</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>NovaSeq X</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
+      <c r="B8" t="inlineStr">
         <is>
           <t>Waters</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>NanoZoomer 2.0-HT</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>timsTOF Ultra 2</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Lightsheet 7</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Phenocycler-Fusion 1.0</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>DNBSEQ-T7</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>timsTOF Pro</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>AVITI</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>timsTOF Pro 2</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Q Exactive UHMR</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Q Exactive</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>timsTOF SCP</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Zyla 4.2 sCMOS</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Helios</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>uScopeHXII-20</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>Custom: Multiphoton</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>QTRAP 5500</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>timsTOF Ultra</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>BZ-X800</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>CyTOF 2</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>G4X Spatial Sequencer</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>NextSeq 500</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>NanoZoomer S360</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>Hyperion Imaging System</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>NovaSeq X Plus</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>CyTOF XT</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>NanoZoomer-SQ</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>NextSeq 550</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>Axio Zoom.V16</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>Digital Spatial Profiler</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>timsTOF FleX</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>timsTOF FleX MALDI-2</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>NanoZoomer S210</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>BZ-X810</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>Axio Observer 7</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>Cytek Northern Lights</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>IN Cell Analyzer 2200</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>timsTOF HT</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>PhenoImager Fusion</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>DM6 B</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>Phenocycler-Fusion 2.0</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>Aperio CS2</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>Orbitrap Fusion Lumos Tribrid</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>Resolve Biosciences Molecular Cartography</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>MALDI timsTOF Flex Prototype</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>TissueScope LE Slide Scanner</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>VS200 Slide Scanner</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>Axio Observer 5</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>Axio Observer 3</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>HiSeq 2500</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>Orbitrap Eclipse Tribrid</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>Cell DIVE</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>MERSCOPE</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>NextSeq 2000</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>NovaSeq 6000</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>In-House</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>HiSeq 4000</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>solariX</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>Panoramic 150 Digital Scanner</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>Aperio AT2</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>MIBIscope</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>Biomark HD</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>NanoZoomer S60</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>CosMx Spatial Molecular Imager</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>MERSCOPE Ultra</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>Axio Scan.Z1</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>Juno System</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>Q Exactive HF</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>Xenium Analyzer</t>
         </is>
       </c>
     </row>
@@ -1133,7 +660,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E71"/>
+  <dimension ref="A1:E81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1176,14 +703,10 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>acquisition_instrument_model</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Dionex; UltiMate 3000 RSLCnano UHPLC System</t>
-        </is>
-      </c>
+          <t>ion_mobility</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr">
         <is>
@@ -1199,10 +722,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ion_mobility</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr"/>
+          <t>lc_column_vendor</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Self-packed</t>
+        </is>
+      </c>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
@@ -1218,12 +745,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>lc_column_vendor</t>
+          <t>lc_instrument_vendor</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Self-packed</t>
+          <t>Dionex</t>
         </is>
       </c>
       <c r="D4" t="inlineStr"/>
@@ -1264,12 +791,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ms_scan_mode</t>
+          <t>mass_analysis_polarity</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>MS/MS</t>
+          <t>positive ion mode</t>
         </is>
       </c>
       <c r="D6" t="inlineStr"/>
@@ -1287,10 +814,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>spatial_sampling_technique</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr"/>
+          <t>ms_scan_mode</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>MS/MS</t>
+        </is>
+      </c>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr">
         <is>
@@ -1306,7 +837,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>spatial_sampling_type</t>
+          <t>spatial_sampling_technique</t>
         </is>
       </c>
       <c r="C8" t="inlineStr"/>
@@ -1320,23 +851,19 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>HBM247.LBFP.935</t>
+          <t>HBM232.VMCT.877</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>acquisition_instrument_model</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Dionex; UltiMate 3000 RSLCnano UHPLC System</t>
-        </is>
-      </c>
+          <t>spatial_sampling_type</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM247.LBFP.935</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM232.VMCT.877</t>
         </is>
       </c>
     </row>
@@ -1390,12 +917,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>lc_temperature_unit</t>
+          <t>lc_instrument_vendor</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>Dionex</t>
         </is>
       </c>
       <c r="D12" t="inlineStr"/>
@@ -1413,12 +940,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>ms_scan_mode</t>
+          <t>lc_temperature_unit</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>MS/MS</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D13" t="inlineStr"/>
@@ -1436,10 +963,14 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>spatial_sampling_technique</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr"/>
+          <t>mass_analysis_polarity</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>positive ion mode</t>
+        </is>
+      </c>
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr">
         <is>
@@ -1455,10 +986,14 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>spatial_sampling_type</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr"/>
+          <t>ms_scan_mode</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>MS/MS</t>
+        </is>
+      </c>
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr">
         <is>
@@ -1469,42 +1004,38 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>HBM348.TWWB.352</t>
+          <t>HBM247.LBFP.935</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>acquisition_instrument_model</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>Dionex; UltiMate 3000 RSLCnano UHPLC System</t>
-        </is>
-      </c>
+          <t>spatial_sampling_technique</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM348.TWWB.352</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM247.LBFP.935</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>HBM348.TWWB.352</t>
+          <t>HBM247.LBFP.935</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>ion_mobility</t>
+          <t>spatial_sampling_type</t>
         </is>
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM348.TWWB.352</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM247.LBFP.935</t>
         </is>
       </c>
     </row>
@@ -1516,14 +1047,10 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>lc_column_vendor</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>Self-packed</t>
-        </is>
-      </c>
+          <t>ion_mobility</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr">
         <is>
@@ -1539,12 +1066,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>lc_temperature_unit</t>
+          <t>lc_column_vendor</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>Self-packed</t>
         </is>
       </c>
       <c r="D19" t="inlineStr"/>
@@ -1562,12 +1089,12 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>ms_scan_mode</t>
+          <t>lc_instrument_vendor</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>MS/MS</t>
+          <t>Dionex</t>
         </is>
       </c>
       <c r="D20" t="inlineStr"/>
@@ -1585,10 +1112,14 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>spatial_sampling_technique</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr"/>
+          <t>lc_temperature_unit</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
       <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr">
         <is>
@@ -1604,10 +1135,14 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>spatial_sampling_type</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr"/>
+          <t>mass_analysis_polarity</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>positive ion mode</t>
+        </is>
+      </c>
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr">
         <is>
@@ -1618,65 +1153,61 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>HBM446.BSSN.562</t>
+          <t>HBM348.TWWB.352</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>acquisition_instrument_model</t>
+          <t>ms_scan_mode</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Dionex; UltiMate 3000 RSLCnano UHPLC System</t>
+          <t>MS/MS</t>
         </is>
       </c>
       <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM446.BSSN.562</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM348.TWWB.352</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>HBM446.BSSN.562</t>
+          <t>HBM348.TWWB.352</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>ion_mobility</t>
+          <t>spatial_sampling_technique</t>
         </is>
       </c>
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM446.BSSN.562</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM348.TWWB.352</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>HBM446.BSSN.562</t>
+          <t>HBM348.TWWB.352</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>lc_column_vendor</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>Self-packed</t>
-        </is>
-      </c>
+          <t>spatial_sampling_type</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM446.BSSN.562</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM348.TWWB.352</t>
         </is>
       </c>
     </row>
@@ -1688,14 +1219,10 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>lc_temperature_unit</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
+          <t>ion_mobility</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr">
         <is>
@@ -1711,12 +1238,12 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>ms_scan_mode</t>
+          <t>lc_column_vendor</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>MS/MS</t>
+          <t>Self-packed</t>
         </is>
       </c>
       <c r="D27" t="inlineStr"/>
@@ -1734,10 +1261,14 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>spatial_sampling_technique</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr"/>
+          <t>lc_instrument_vendor</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Dionex</t>
+        </is>
+      </c>
       <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr">
         <is>
@@ -1753,10 +1284,14 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>spatial_sampling_type</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr"/>
+          <t>lc_temperature_unit</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
       <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr">
         <is>
@@ -1767,88 +1302,84 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>HBM454.BNCC.556</t>
+          <t>HBM446.BSSN.562</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>acquisition_instrument_model</t>
+          <t>mass_analysis_polarity</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Dionex; UltiMate 3000 RSLCnano UHPLC System</t>
+          <t>positive ion mode</t>
         </is>
       </c>
       <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM454.BNCC.556</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM446.BSSN.562</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>HBM454.BNCC.556</t>
+          <t>HBM446.BSSN.562</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>ion_mobility</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr"/>
+          <t>ms_scan_mode</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>MS/MS</t>
+        </is>
+      </c>
       <c r="D31" t="inlineStr"/>
       <c r="E31" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM454.BNCC.556</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM446.BSSN.562</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>HBM454.BNCC.556</t>
+          <t>HBM446.BSSN.562</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>lc_column_vendor</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>Self-packed</t>
-        </is>
-      </c>
+          <t>spatial_sampling_technique</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr"/>
       <c r="E32" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM454.BNCC.556</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM446.BSSN.562</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>HBM454.BNCC.556</t>
+          <t>HBM446.BSSN.562</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>lc_temperature_unit</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
+          <t>spatial_sampling_type</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr"/>
       <c r="D33" t="inlineStr"/>
       <c r="E33" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM454.BNCC.556</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM446.BSSN.562</t>
         </is>
       </c>
     </row>
@@ -1860,14 +1391,10 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>ms_scan_mode</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>MS/MS</t>
-        </is>
-      </c>
+          <t>ion_mobility</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr"/>
       <c r="D34" t="inlineStr"/>
       <c r="E34" t="inlineStr">
         <is>
@@ -1883,10 +1410,14 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>spatial_sampling_technique</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr"/>
+          <t>lc_column_vendor</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Self-packed</t>
+        </is>
+      </c>
       <c r="D35" t="inlineStr"/>
       <c r="E35" t="inlineStr">
         <is>
@@ -1902,10 +1433,14 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>spatial_sampling_type</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr"/>
+          <t>lc_instrument_vendor</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Dionex</t>
+        </is>
+      </c>
       <c r="D36" t="inlineStr"/>
       <c r="E36" t="inlineStr">
         <is>
@@ -1916,111 +1451,107 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>HBM454.FVCQ.632</t>
+          <t>HBM454.BNCC.556</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>acquisition_instrument_model</t>
+          <t>lc_temperature_unit</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Dionex; UltiMate 3000 RSLCnano UHPLC System</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM454.FVCQ.632</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM454.BNCC.556</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>HBM454.FVCQ.632</t>
+          <t>HBM454.BNCC.556</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>ion_mobility</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr"/>
+          <t>mass_analysis_polarity</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>positive ion mode</t>
+        </is>
+      </c>
       <c r="D38" t="inlineStr"/>
       <c r="E38" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM454.FVCQ.632</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM454.BNCC.556</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>HBM454.FVCQ.632</t>
+          <t>HBM454.BNCC.556</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>lc_column_vendor</t>
+          <t>ms_scan_mode</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Self-packed</t>
+          <t>MS/MS</t>
         </is>
       </c>
       <c r="D39" t="inlineStr"/>
       <c r="E39" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM454.FVCQ.632</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM454.BNCC.556</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>HBM454.FVCQ.632</t>
+          <t>HBM454.BNCC.556</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>lc_temperature_unit</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
+          <t>spatial_sampling_technique</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr"/>
       <c r="D40" t="inlineStr"/>
       <c r="E40" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM454.FVCQ.632</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM454.BNCC.556</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>HBM454.FVCQ.632</t>
+          <t>HBM454.BNCC.556</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>ms_scan_mode</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>MS/MS</t>
-        </is>
-      </c>
+          <t>spatial_sampling_type</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr"/>
       <c r="D41" t="inlineStr"/>
       <c r="E41" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM454.FVCQ.632</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM454.BNCC.556</t>
         </is>
       </c>
     </row>
@@ -2032,7 +1563,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>spatial_sampling_technique</t>
+          <t>ion_mobility</t>
         </is>
       </c>
       <c r="C42" t="inlineStr"/>
@@ -2051,10 +1582,14 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>spatial_sampling_type</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr"/>
+          <t>lc_column_vendor</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Self-packed</t>
+        </is>
+      </c>
       <c r="D43" t="inlineStr"/>
       <c r="E43" t="inlineStr">
         <is>
@@ -2065,130 +1600,130 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>HBM648.QVGL.995</t>
+          <t>HBM454.FVCQ.632</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>acquisition_instrument_model</t>
+          <t>lc_instrument_vendor</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Dionex; UltiMate 3000 RSLCnano UHPLC System</t>
+          <t>Dionex</t>
         </is>
       </c>
       <c r="D44" t="inlineStr"/>
       <c r="E44" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM648.QVGL.995</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM454.FVCQ.632</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>HBM648.QVGL.995</t>
+          <t>HBM454.FVCQ.632</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>ion_mobility</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr"/>
+          <t>lc_temperature_unit</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
       <c r="D45" t="inlineStr"/>
       <c r="E45" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM648.QVGL.995</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM454.FVCQ.632</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>HBM648.QVGL.995</t>
+          <t>HBM454.FVCQ.632</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>lc_column_vendor</t>
+          <t>mass_analysis_polarity</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Self-packed</t>
+          <t>positive ion mode</t>
         </is>
       </c>
       <c r="D46" t="inlineStr"/>
       <c r="E46" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM648.QVGL.995</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM454.FVCQ.632</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>HBM648.QVGL.995</t>
+          <t>HBM454.FVCQ.632</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>lc_temperature_unit</t>
+          <t>ms_scan_mode</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>MS/MS</t>
         </is>
       </c>
       <c r="D47" t="inlineStr"/>
       <c r="E47" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM648.QVGL.995</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM454.FVCQ.632</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>HBM648.QVGL.995</t>
+          <t>HBM454.FVCQ.632</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>ms_scan_mode</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>MS/MS</t>
-        </is>
-      </c>
+          <t>spatial_sampling_technique</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr"/>
       <c r="D48" t="inlineStr"/>
       <c r="E48" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM648.QVGL.995</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM454.FVCQ.632</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>HBM648.QVGL.995</t>
+          <t>HBM454.FVCQ.632</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>spatial_sampling_technique</t>
+          <t>spatial_sampling_type</t>
         </is>
       </c>
       <c r="C49" t="inlineStr"/>
       <c r="D49" t="inlineStr"/>
       <c r="E49" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM648.QVGL.995</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM454.FVCQ.632</t>
         </is>
       </c>
     </row>
@@ -2200,7 +1735,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>spatial_sampling_type</t>
+          <t>ion_mobility</t>
         </is>
       </c>
       <c r="C50" t="inlineStr"/>
@@ -2214,95 +1749,99 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>HBM755.LRFS.688</t>
+          <t>HBM648.QVGL.995</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>acquisition_instrument_model</t>
+          <t>lc_column_vendor</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Dionex; UltiMate 3000 RSLCnano UHPLC System</t>
+          <t>Self-packed</t>
         </is>
       </c>
       <c r="D51" t="inlineStr"/>
       <c r="E51" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM755.LRFS.688</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM648.QVGL.995</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>HBM755.LRFS.688</t>
+          <t>HBM648.QVGL.995</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>ion_mobility</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr"/>
+          <t>lc_instrument_vendor</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Dionex</t>
+        </is>
+      </c>
       <c r="D52" t="inlineStr"/>
       <c r="E52" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM755.LRFS.688</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM648.QVGL.995</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>HBM755.LRFS.688</t>
+          <t>HBM648.QVGL.995</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>lc_column_vendor</t>
+          <t>lc_temperature_unit</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Self-packed</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D53" t="inlineStr"/>
       <c r="E53" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM755.LRFS.688</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM648.QVGL.995</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>HBM755.LRFS.688</t>
+          <t>HBM648.QVGL.995</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>lc_temperature_unit</t>
+          <t>mass_analysis_polarity</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>positive ion mode</t>
         </is>
       </c>
       <c r="D54" t="inlineStr"/>
       <c r="E54" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM755.LRFS.688</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM648.QVGL.995</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>HBM755.LRFS.688</t>
+          <t>HBM648.QVGL.995</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -2318,14 +1857,14 @@
       <c r="D55" t="inlineStr"/>
       <c r="E55" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM755.LRFS.688</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM648.QVGL.995</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>HBM755.LRFS.688</t>
+          <t>HBM648.QVGL.995</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -2337,14 +1876,14 @@
       <c r="D56" t="inlineStr"/>
       <c r="E56" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM755.LRFS.688</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM648.QVGL.995</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>HBM755.LRFS.688</t>
+          <t>HBM648.QVGL.995</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -2356,79 +1895,79 @@
       <c r="D57" t="inlineStr"/>
       <c r="E57" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM755.LRFS.688</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM648.QVGL.995</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>HBM857.DKPM.277</t>
+          <t>HBM755.LRFS.688</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>acquisition_instrument_model</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>Dionex; UltiMate 3000 RSLCnano UHPLC System</t>
-        </is>
-      </c>
+          <t>ion_mobility</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr"/>
       <c r="D58" t="inlineStr"/>
       <c r="E58" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM857.DKPM.277</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM755.LRFS.688</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>HBM857.DKPM.277</t>
+          <t>HBM755.LRFS.688</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>ion_mobility</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr"/>
+          <t>lc_column_vendor</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Self-packed</t>
+        </is>
+      </c>
       <c r="D59" t="inlineStr"/>
       <c r="E59" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM857.DKPM.277</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM755.LRFS.688</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>HBM857.DKPM.277</t>
+          <t>HBM755.LRFS.688</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>lc_column_vendor</t>
+          <t>lc_instrument_vendor</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Self-packed</t>
+          <t>Dionex</t>
         </is>
       </c>
       <c r="D60" t="inlineStr"/>
       <c r="E60" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM857.DKPM.277</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM755.LRFS.688</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>HBM857.DKPM.277</t>
+          <t>HBM755.LRFS.688</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -2444,98 +1983,98 @@
       <c r="D61" t="inlineStr"/>
       <c r="E61" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM857.DKPM.277</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM755.LRFS.688</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>HBM857.DKPM.277</t>
+          <t>HBM755.LRFS.688</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>ms_scan_mode</t>
+          <t>mass_analysis_polarity</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>MS/MS</t>
+          <t>positive ion mode</t>
         </is>
       </c>
       <c r="D62" t="inlineStr"/>
       <c r="E62" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM857.DKPM.277</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM755.LRFS.688</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>HBM857.DKPM.277</t>
+          <t>HBM755.LRFS.688</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>spatial_sampling_technique</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr"/>
+          <t>ms_scan_mode</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>MS/MS</t>
+        </is>
+      </c>
       <c r="D63" t="inlineStr"/>
       <c r="E63" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM857.DKPM.277</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM755.LRFS.688</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>HBM857.DKPM.277</t>
+          <t>HBM755.LRFS.688</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>spatial_sampling_type</t>
+          <t>spatial_sampling_technique</t>
         </is>
       </c>
       <c r="C64" t="inlineStr"/>
       <c r="D64" t="inlineStr"/>
       <c r="E64" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM857.DKPM.277</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM755.LRFS.688</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>HBM984.PSPF.676</t>
+          <t>HBM755.LRFS.688</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>acquisition_instrument_model</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>Dionex; UltiMate 3000 RSLCnano UHPLC System</t>
-        </is>
-      </c>
+          <t>spatial_sampling_type</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr"/>
       <c r="D65" t="inlineStr"/>
       <c r="E65" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM984.PSPF.676</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM755.LRFS.688</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>HBM984.PSPF.676</t>
+          <t>HBM857.DKPM.277</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -2547,14 +2086,14 @@
       <c r="D66" t="inlineStr"/>
       <c r="E66" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM984.PSPF.676</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM857.DKPM.277</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>HBM984.PSPF.676</t>
+          <t>HBM857.DKPM.277</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -2570,117 +2109,338 @@
       <c r="D67" t="inlineStr"/>
       <c r="E67" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM984.PSPF.676</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM857.DKPM.277</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>HBM984.PSPF.676</t>
+          <t>HBM857.DKPM.277</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>lc_temperature_unit</t>
+          <t>lc_instrument_vendor</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>Dionex</t>
         </is>
       </c>
       <c r="D68" t="inlineStr"/>
       <c r="E68" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM984.PSPF.676</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM857.DKPM.277</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>HBM984.PSPF.676</t>
+          <t>HBM857.DKPM.277</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>ms_scan_mode</t>
+          <t>lc_temperature_unit</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>MS/MS</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D69" t="inlineStr"/>
       <c r="E69" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM984.PSPF.676</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM857.DKPM.277</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>HBM984.PSPF.676</t>
+          <t>HBM857.DKPM.277</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>spatial_sampling_technique</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr"/>
+          <t>mass_analysis_polarity</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>positive ion mode</t>
+        </is>
+      </c>
       <c r="D70" t="inlineStr"/>
       <c r="E70" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM984.PSPF.676</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM857.DKPM.277</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>HBM984.PSPF.676</t>
+          <t>HBM857.DKPM.277</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>spatial_sampling_type</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr"/>
+          <t>ms_scan_mode</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>MS/MS</t>
+        </is>
+      </c>
       <c r="D71" t="inlineStr"/>
       <c r="E71" t="inlineStr">
         <is>
+          <t>https://portal.hubmapconsortium.org/browse/HBM857.DKPM.277</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>HBM857.DKPM.277</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>spatial_sampling_technique</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr"/>
+      <c r="D72" t="inlineStr"/>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>https://portal.hubmapconsortium.org/browse/HBM857.DKPM.277</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>HBM857.DKPM.277</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>spatial_sampling_type</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr"/>
+      <c r="D73" t="inlineStr"/>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>https://portal.hubmapconsortium.org/browse/HBM857.DKPM.277</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>HBM984.PSPF.676</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>ion_mobility</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr"/>
+      <c r="D74" t="inlineStr"/>
+      <c r="E74" t="inlineStr">
+        <is>
           <t>https://portal.hubmapconsortium.org/browse/HBM984.PSPF.676</t>
         </is>
       </c>
     </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>HBM984.PSPF.676</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>lc_column_vendor</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Self-packed</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr"/>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>https://portal.hubmapconsortium.org/browse/HBM984.PSPF.676</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>HBM984.PSPF.676</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>lc_instrument_vendor</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Dionex</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr"/>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>https://portal.hubmapconsortium.org/browse/HBM984.PSPF.676</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>HBM984.PSPF.676</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>lc_temperature_unit</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr"/>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>https://portal.hubmapconsortium.org/browse/HBM984.PSPF.676</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>HBM984.PSPF.676</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>mass_analysis_polarity</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>positive ion mode</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr"/>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>https://portal.hubmapconsortium.org/browse/HBM984.PSPF.676</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>HBM984.PSPF.676</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>ms_scan_mode</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>MS/MS</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr"/>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>https://portal.hubmapconsortium.org/browse/HBM984.PSPF.676</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>HBM984.PSPF.676</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>spatial_sampling_technique</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr"/>
+      <c r="D80" t="inlineStr"/>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>https://portal.hubmapconsortium.org/browse/HBM984.PSPF.676</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>HBM984.PSPF.676</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>spatial_sampling_type</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr"/>
+      <c r="D81" t="inlineStr"/>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>https://portal.hubmapconsortium.org/browse/HBM984.PSPF.676</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:E71"/>
-  <dataValidations count="7">
-    <dataValidation sqref="D2 D9 D16 D23 D30 D37 D44 D51 D58 D65" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
-      <formula1>_validation_data!$A$1:$A$77</formula1>
+  <autoFilter ref="A1:E81"/>
+  <dataValidations count="8">
+    <dataValidation sqref="D2 D10 D18 D26 D34 D42 D50 D58 D66 D74" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
+      <formula1>_validation_data!$A$1:$A$6</formula1>
     </dataValidation>
-    <dataValidation sqref="D3 D10 D17 D24 D31 D38 D45 D52 D59 D66" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
-      <formula1>_validation_data!$B$1:$B$6</formula1>
+    <dataValidation sqref="D3 D11 D19 D27 D35 D43 D51 D59 D67 D75" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
+      <formula1>_validation_data!$B$1:$B$8</formula1>
     </dataValidation>
-    <dataValidation sqref="D4 D11 D18 D25 D32 D39 D46 D53 D60 D67" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
-      <formula1>_validation_data!$C$1:$C$8</formula1>
+    <dataValidation sqref="D4 D12 D20 D28 D36 D44 D52 D60 D68 D76" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
+      <formula1>_validation_data!$C$1:$C$7</formula1>
     </dataValidation>
-    <dataValidation sqref="D5 D12 D19 D26 D33 D40 D47 D54 D61 D68" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
+    <dataValidation sqref="D5 D13 D21 D29 D37 D45 D53 D61 D69 D77" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
       <formula1>_validation_data!$D$1:$D$1</formula1>
     </dataValidation>
-    <dataValidation sqref="D6 D13 D20 D27 D34 D41 D48 D55 D62 D69" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
+    <dataValidation sqref="D6 D14 D22 D30 D38 D46 D54 D62 D70 D78" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
       <formula1>_validation_data!$E$1:$E$3</formula1>
     </dataValidation>
-    <dataValidation sqref="D7 D14 D21 D28 D35 D42 D49 D56 D63 D70" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
-      <formula1>_validation_data!$G$1:$G$6</formula1>
+    <dataValidation sqref="D7 D15 D23 D31 D39 D47 D55 D63 D71 D79" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
+      <formula1>_validation_data!$F$1:$F$3</formula1>
     </dataValidation>
-    <dataValidation sqref="D8 D15 D22 D29 D36 D43 D50 D57 D64 D71" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
-      <formula1>_validation_data!$H$1:$H$2</formula1>
+    <dataValidation sqref="D8 D16 D24 D32 D40 D48 D56 D64 D72 D80" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
+      <formula1>_validation_data!$H$1:$H$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="D9 D17 D25 D33 D41 D49 D57 D65 D73 D81" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
+      <formula1>_validation_data!$I$1:$I$2</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3087,7 +2847,7 @@
   <autoFilter ref="A1:D21"/>
   <dataValidations count="1">
     <dataValidation sqref="C2 C4 C6 C8 C10 C12 C14 C16 C18 C20" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
-      <formula1>_validation_data!$F$1:$F$5</formula1>
+      <formula1>_validation_data!$G$1:$G$5</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/metadata/lcms/todo/Northwestern RTI (LC-MS).xlsx
+++ b/metadata/lcms/todo/Northwestern RTI (LC-MS).xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:I77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -431,12 +431,12 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
+          <t>SCN400</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
           <t>cIMS</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>In-House</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
@@ -478,17 +478,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>STELLARIS 5</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
           <t>TWIMS</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>IonOpticks</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Evosep</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -520,17 +520,17 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>BZ-X710</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>DTIMS</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>Evosep</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Thermo Fisher Scientific</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -557,17 +557,17 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>Pannoramic MIDI II Digital Scanner</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>SLIM</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>Thermo Fisher Scientific</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Agilent Technologies</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -584,17 +584,17 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>Not applicable</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>TIMS</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>Agilent Technologies</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Sciex</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -611,41 +611,529 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>MoticEasyScan One</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>FAIMS</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Millipore</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>LCM</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>EVOS M7000</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
         <is>
           <t>Bruker</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>LCM</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Bruker</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>NovaSeq X</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
         <is>
           <t>Waters</t>
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Waters</t>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>NanoZoomer 2.0-HT</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>timsTOF Ultra 2</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Lightsheet 7</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Phenocycler-Fusion 1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>DNBSEQ-T7</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>timsTOF Pro</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>AVITI</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>timsTOF Pro 2</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Q Exactive UHMR</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Q Exactive</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>timsTOF SCP</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Zyla 4.2 sCMOS</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Helios</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>uScopeHXII-20</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Custom: Multiphoton</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>QTRAP 5500</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>timsTOF Ultra</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>BZ-X800</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>CyTOF 2</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>G4X Spatial Sequencer</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>NextSeq 500</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>NanoZoomer S360</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Hyperion Imaging System</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>NovaSeq X Plus</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>CyTOF XT</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>NanoZoomer-SQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>NextSeq 550</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Axio Zoom.V16</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Digital Spatial Profiler</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>timsTOF FleX</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>timsTOF FleX MALDI-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>NanoZoomer S210</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>BZ-X810</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Axio Observer 7</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Cytek Northern Lights</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>IN Cell Analyzer 2200</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>timsTOF HT</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>PhenoImager Fusion</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>DM6 B</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Phenocycler-Fusion 2.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Aperio CS2</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Orbitrap Fusion Lumos Tribrid</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Resolve Biosciences Molecular Cartography</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>MALDI timsTOF Flex Prototype</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>TissueScope LE Slide Scanner</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>VS200 Slide Scanner</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Axio Observer 5</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Axio Observer 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>HiSeq 2500</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Orbitrap Eclipse Tribrid</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Cell DIVE</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>MERSCOPE</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>NextSeq 2000</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>NovaSeq 6000</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>In-House</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>HiSeq 4000</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>solariX</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Panoramic 150 Digital Scanner</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Aperio AT2</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>MIBIscope</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Biomark HD</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>NanoZoomer S60</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>CosMx Spatial Molecular Imager</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>MERSCOPE Ultra</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Axio Scan.Z1</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Juno System</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Q Exactive HF</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Xenium Analyzer</t>
         </is>
       </c>
     </row>
@@ -703,10 +1191,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ion_mobility</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr"/>
+          <t>acquisition_instrument_model</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Dionex; UltiMate 3000 RSLCnano UHPLC System</t>
+        </is>
+      </c>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr">
         <is>
@@ -722,14 +1214,10 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>lc_column_vendor</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Self-packed</t>
-        </is>
-      </c>
+          <t>ion_mobility</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
@@ -745,12 +1233,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>lc_instrument_vendor</t>
+          <t>lc_column_vendor</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Dionex</t>
+          <t>Self-packed</t>
         </is>
       </c>
       <c r="D4" t="inlineStr"/>
@@ -875,10 +1363,14 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ion_mobility</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr"/>
+          <t>acquisition_instrument_model</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Dionex; UltiMate 3000 RSLCnano UHPLC System</t>
+        </is>
+      </c>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr">
         <is>
@@ -894,14 +1386,10 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>lc_column_vendor</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Self-packed</t>
-        </is>
-      </c>
+          <t>ion_mobility</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr">
         <is>
@@ -917,12 +1405,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>lc_instrument_vendor</t>
+          <t>lc_column_vendor</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Dionex</t>
+          <t>Self-packed</t>
         </is>
       </c>
       <c r="D12" t="inlineStr"/>
@@ -1047,10 +1535,14 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>ion_mobility</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr"/>
+          <t>acquisition_instrument_model</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Dionex; UltiMate 3000 RSLCnano UHPLC System</t>
+        </is>
+      </c>
       <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr">
         <is>
@@ -1066,14 +1558,10 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>lc_column_vendor</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>Self-packed</t>
-        </is>
-      </c>
+          <t>ion_mobility</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr">
         <is>
@@ -1089,12 +1577,12 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>lc_instrument_vendor</t>
+          <t>lc_column_vendor</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Dionex</t>
+          <t>Self-packed</t>
         </is>
       </c>
       <c r="D20" t="inlineStr"/>
@@ -1219,10 +1707,14 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>ion_mobility</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr"/>
+          <t>acquisition_instrument_model</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Dionex; UltiMate 3000 RSLCnano UHPLC System</t>
+        </is>
+      </c>
       <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr">
         <is>
@@ -1238,14 +1730,10 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>lc_column_vendor</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>Self-packed</t>
-        </is>
-      </c>
+          <t>ion_mobility</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr">
         <is>
@@ -1261,12 +1749,12 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>lc_instrument_vendor</t>
+          <t>lc_column_vendor</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Dionex</t>
+          <t>Self-packed</t>
         </is>
       </c>
       <c r="D28" t="inlineStr"/>
@@ -1391,10 +1879,14 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>ion_mobility</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr"/>
+          <t>acquisition_instrument_model</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Dionex; UltiMate 3000 RSLCnano UHPLC System</t>
+        </is>
+      </c>
       <c r="D34" t="inlineStr"/>
       <c r="E34" t="inlineStr">
         <is>
@@ -1410,14 +1902,10 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>lc_column_vendor</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>Self-packed</t>
-        </is>
-      </c>
+          <t>ion_mobility</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr"/>
       <c r="D35" t="inlineStr"/>
       <c r="E35" t="inlineStr">
         <is>
@@ -1433,12 +1921,12 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>lc_instrument_vendor</t>
+          <t>lc_column_vendor</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Dionex</t>
+          <t>Self-packed</t>
         </is>
       </c>
       <c r="D36" t="inlineStr"/>
@@ -1563,10 +2051,14 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>ion_mobility</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr"/>
+          <t>acquisition_instrument_model</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Dionex; UltiMate 3000 RSLCnano UHPLC System</t>
+        </is>
+      </c>
       <c r="D42" t="inlineStr"/>
       <c r="E42" t="inlineStr">
         <is>
@@ -1582,14 +2074,10 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>lc_column_vendor</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>Self-packed</t>
-        </is>
-      </c>
+          <t>ion_mobility</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr"/>
       <c r="D43" t="inlineStr"/>
       <c r="E43" t="inlineStr">
         <is>
@@ -1605,12 +2093,12 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>lc_instrument_vendor</t>
+          <t>lc_column_vendor</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Dionex</t>
+          <t>Self-packed</t>
         </is>
       </c>
       <c r="D44" t="inlineStr"/>
@@ -1735,10 +2223,14 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>ion_mobility</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr"/>
+          <t>acquisition_instrument_model</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Dionex; UltiMate 3000 RSLCnano UHPLC System</t>
+        </is>
+      </c>
       <c r="D50" t="inlineStr"/>
       <c r="E50" t="inlineStr">
         <is>
@@ -1754,14 +2246,10 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>lc_column_vendor</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>Self-packed</t>
-        </is>
-      </c>
+          <t>ion_mobility</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr"/>
       <c r="D51" t="inlineStr"/>
       <c r="E51" t="inlineStr">
         <is>
@@ -1777,12 +2265,12 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>lc_instrument_vendor</t>
+          <t>lc_column_vendor</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Dionex</t>
+          <t>Self-packed</t>
         </is>
       </c>
       <c r="D52" t="inlineStr"/>
@@ -1907,10 +2395,14 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>ion_mobility</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr"/>
+          <t>acquisition_instrument_model</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Dionex; UltiMate 3000 RSLCnano UHPLC System</t>
+        </is>
+      </c>
       <c r="D58" t="inlineStr"/>
       <c r="E58" t="inlineStr">
         <is>
@@ -1926,14 +2418,10 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>lc_column_vendor</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>Self-packed</t>
-        </is>
-      </c>
+          <t>ion_mobility</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr"/>
       <c r="D59" t="inlineStr"/>
       <c r="E59" t="inlineStr">
         <is>
@@ -1949,12 +2437,12 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>lc_instrument_vendor</t>
+          <t>lc_column_vendor</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Dionex</t>
+          <t>Self-packed</t>
         </is>
       </c>
       <c r="D60" t="inlineStr"/>
@@ -2079,10 +2567,14 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>ion_mobility</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr"/>
+          <t>acquisition_instrument_model</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Dionex; UltiMate 3000 RSLCnano UHPLC System</t>
+        </is>
+      </c>
       <c r="D66" t="inlineStr"/>
       <c r="E66" t="inlineStr">
         <is>
@@ -2098,14 +2590,10 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>lc_column_vendor</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>Self-packed</t>
-        </is>
-      </c>
+          <t>ion_mobility</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr"/>
       <c r="D67" t="inlineStr"/>
       <c r="E67" t="inlineStr">
         <is>
@@ -2121,12 +2609,12 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>lc_instrument_vendor</t>
+          <t>lc_column_vendor</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Dionex</t>
+          <t>Self-packed</t>
         </is>
       </c>
       <c r="D68" t="inlineStr"/>
@@ -2251,10 +2739,14 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>ion_mobility</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr"/>
+          <t>acquisition_instrument_model</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Dionex; UltiMate 3000 RSLCnano UHPLC System</t>
+        </is>
+      </c>
       <c r="D74" t="inlineStr"/>
       <c r="E74" t="inlineStr">
         <is>
@@ -2270,14 +2762,10 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>lc_column_vendor</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>Self-packed</t>
-        </is>
-      </c>
+          <t>ion_mobility</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr"/>
       <c r="D75" t="inlineStr"/>
       <c r="E75" t="inlineStr">
         <is>
@@ -2293,12 +2781,12 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>lc_instrument_vendor</t>
+          <t>lc_column_vendor</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Dionex</t>
+          <t>Self-packed</t>
         </is>
       </c>
       <c r="D76" t="inlineStr"/>
@@ -2419,13 +2907,13 @@
   <autoFilter ref="A1:E81"/>
   <dataValidations count="8">
     <dataValidation sqref="D2 D10 D18 D26 D34 D42 D50 D58 D66 D74" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
-      <formula1>_validation_data!$A$1:$A$6</formula1>
+      <formula1>_validation_data!$A$1:$A$77</formula1>
     </dataValidation>
     <dataValidation sqref="D3 D11 D19 D27 D35 D43 D51 D59 D67 D75" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
-      <formula1>_validation_data!$B$1:$B$8</formula1>
+      <formula1>_validation_data!$B$1:$B$6</formula1>
     </dataValidation>
     <dataValidation sqref="D4 D12 D20 D28 D36 D44 D52 D60 D68 D76" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
-      <formula1>_validation_data!$C$1:$C$7</formula1>
+      <formula1>_validation_data!$C$1:$C$8</formula1>
     </dataValidation>
     <dataValidation sqref="D5 D13 D21 D29 D37 D45 D53 D61 D69 D77" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
       <formula1>_validation_data!$D$1:$D$1</formula1>

--- a/metadata/lcms/todo/Northwestern RTI (LC-MS).xlsx
+++ b/metadata/lcms/todo/Northwestern RTI (LC-MS).xlsx
@@ -13,7 +13,7 @@
     <sheet name="Invalid Input Pattern" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Non-Standard Value'!$A$1:$E$81</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Non-Standard Value'!$A$1:$E$61</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Missing Required Value'!$A$1:$D$21</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Invalid Input Pattern'!$A$1:$F$11</definedName>
   </definedNames>
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I77"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -431,45 +431,35 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>SCN400</t>
+          <t>cIMS</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>cIMS</t>
+          <t>celsius</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>In-House</t>
+          <t>Negative ion mode</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>celsius</t>
+          <t>MS1</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>Negative ion mode</t>
+          <t>hour</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>MS1</t>
+          <t>microPOTS</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
-        <is>
-          <t>hour</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>microPOTS</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
         <is>
           <t>Profiling</t>
         </is>
@@ -478,40 +468,30 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>STELLARIS 5</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
           <t>TWIMS</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>IonOpticks</t>
+          <t>Positive ion mode</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>MS3</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Positive ion mode</t>
+          <t>month</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>MS3</t>
+          <t>nanoSPLITS</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
-        <is>
-          <t>month</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>nanoSPLITS</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
         <is>
           <t>Imaging</t>
         </is>
@@ -520,35 +500,25 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>BZ-X710</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
           <t>DTIMS</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Evosep</t>
+          <t>Negative and positive ion mode</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>MS2</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Negative and positive ion mode</t>
+          <t>year</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
-        <is>
-          <t>MS2</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>year</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
         <is>
           <t>LESA</t>
         </is>
@@ -557,25 +527,15 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Pannoramic MIDI II Digital Scanner</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
           <t>SLIM</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Thermo Fisher Scientific</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>day</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>microLESA</t>
         </is>
@@ -584,25 +544,15 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Not applicable</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
           <t>TIMS</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Agilent Technologies</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>minute</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>nanoPOTS</t>
         </is>
@@ -611,529 +561,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>MoticEasyScan One</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
           <t>FAIMS</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Millipore</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>LCM</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>EVOS M7000</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Bruker</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>NovaSeq X</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Waters</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>NanoZoomer 2.0-HT</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>timsTOF Ultra 2</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Lightsheet 7</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Phenocycler-Fusion 1.0</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>DNBSEQ-T7</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>timsTOF Pro</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>AVITI</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>timsTOF Pro 2</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Q Exactive UHMR</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Q Exactive</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>timsTOF SCP</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Zyla 4.2 sCMOS</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Helios</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>uScopeHXII-20</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>Custom: Multiphoton</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>QTRAP 5500</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>timsTOF Ultra</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>BZ-X800</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>CyTOF 2</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>G4X Spatial Sequencer</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>NextSeq 500</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>NanoZoomer S360</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>Hyperion Imaging System</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>NovaSeq X Plus</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>CyTOF XT</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>NanoZoomer-SQ</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>NextSeq 550</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>Axio Zoom.V16</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>Digital Spatial Profiler</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>timsTOF FleX</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>timsTOF FleX MALDI-2</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>NanoZoomer S210</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>BZ-X810</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>Axio Observer 7</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>Cytek Northern Lights</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>IN Cell Analyzer 2200</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>timsTOF HT</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>PhenoImager Fusion</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>DM6 B</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>Phenocycler-Fusion 2.0</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>Aperio CS2</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>Orbitrap Fusion Lumos Tribrid</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>Resolve Biosciences Molecular Cartography</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>MALDI timsTOF Flex Prototype</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>TissueScope LE Slide Scanner</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>VS200 Slide Scanner</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>Axio Observer 5</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>Axio Observer 3</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>HiSeq 2500</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>Orbitrap Eclipse Tribrid</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>Cell DIVE</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>MERSCOPE</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>NextSeq 2000</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>NovaSeq 6000</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>In-House</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>HiSeq 4000</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>solariX</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>Panoramic 150 Digital Scanner</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>Aperio AT2</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>MIBIscope</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>Biomark HD</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>NanoZoomer S60</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>CosMx Spatial Molecular Imager</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>MERSCOPE Ultra</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>Axio Scan.Z1</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>Juno System</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>Q Exactive HF</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>Xenium Analyzer</t>
         </is>
       </c>
     </row>
@@ -1148,7 +581,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E81"/>
+  <dimension ref="A1:E61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1191,14 +624,10 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>acquisition_instrument_model</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Dionex; UltiMate 3000 RSLCnano UHPLC System</t>
-        </is>
-      </c>
+          <t>ion_mobility</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr">
         <is>
@@ -1214,10 +643,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ion_mobility</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr"/>
+          <t>lc_temperature_unit</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
@@ -1233,12 +666,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>lc_column_vendor</t>
+          <t>mass_analysis_polarity</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Self-packed</t>
+          <t>positive ion mode</t>
         </is>
       </c>
       <c r="D4" t="inlineStr"/>
@@ -1256,12 +689,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>lc_temperature_unit</t>
+          <t>ms_scan_mode</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>MS/MS</t>
         </is>
       </c>
       <c r="D5" t="inlineStr"/>
@@ -1279,14 +712,10 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>mass_analysis_polarity</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>positive ion mode</t>
-        </is>
-      </c>
+          <t>spatial_sampling_technique</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr">
         <is>
@@ -1302,14 +731,10 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ms_scan_mode</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>MS/MS</t>
-        </is>
-      </c>
+          <t>spatial_sampling_type</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr">
         <is>
@@ -1320,38 +745,42 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>HBM232.VMCT.877</t>
+          <t>HBM247.LBFP.935</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>spatial_sampling_technique</t>
+          <t>ion_mobility</t>
         </is>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM232.VMCT.877</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM247.LBFP.935</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>HBM232.VMCT.877</t>
+          <t>HBM247.LBFP.935</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>spatial_sampling_type</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr"/>
+          <t>lc_temperature_unit</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM232.VMCT.877</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM247.LBFP.935</t>
         </is>
       </c>
     </row>
@@ -1363,12 +792,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>acquisition_instrument_model</t>
+          <t>mass_analysis_polarity</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Dionex; UltiMate 3000 RSLCnano UHPLC System</t>
+          <t>positive ion mode</t>
         </is>
       </c>
       <c r="D10" t="inlineStr"/>
@@ -1386,10 +815,14 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>ion_mobility</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr"/>
+          <t>ms_scan_mode</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>MS/MS</t>
+        </is>
+      </c>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr">
         <is>
@@ -1405,14 +838,10 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>lc_column_vendor</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Self-packed</t>
-        </is>
-      </c>
+          <t>spatial_sampling_technique</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr">
         <is>
@@ -1428,14 +857,10 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>lc_temperature_unit</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
+          <t>spatial_sampling_type</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr">
         <is>
@@ -1446,84 +871,88 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>HBM247.LBFP.935</t>
+          <t>HBM348.TWWB.352</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>mass_analysis_polarity</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>positive ion mode</t>
-        </is>
-      </c>
+          <t>ion_mobility</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM247.LBFP.935</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM348.TWWB.352</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>HBM247.LBFP.935</t>
+          <t>HBM348.TWWB.352</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>ms_scan_mode</t>
+          <t>lc_temperature_unit</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>MS/MS</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM247.LBFP.935</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM348.TWWB.352</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>HBM247.LBFP.935</t>
+          <t>HBM348.TWWB.352</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>spatial_sampling_technique</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr"/>
+          <t>mass_analysis_polarity</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>positive ion mode</t>
+        </is>
+      </c>
       <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM247.LBFP.935</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM348.TWWB.352</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>HBM247.LBFP.935</t>
+          <t>HBM348.TWWB.352</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>spatial_sampling_type</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr"/>
+          <t>ms_scan_mode</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>MS/MS</t>
+        </is>
+      </c>
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM247.LBFP.935</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM348.TWWB.352</t>
         </is>
       </c>
     </row>
@@ -1535,14 +964,10 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>acquisition_instrument_model</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>Dionex; UltiMate 3000 RSLCnano UHPLC System</t>
-        </is>
-      </c>
+          <t>spatial_sampling_technique</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr">
         <is>
@@ -1558,7 +983,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>ion_mobility</t>
+          <t>spatial_sampling_type</t>
         </is>
       </c>
       <c r="C19" t="inlineStr"/>
@@ -1572,30 +997,26 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>HBM348.TWWB.352</t>
+          <t>HBM446.BSSN.562</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>lc_column_vendor</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>Self-packed</t>
-        </is>
-      </c>
+          <t>ion_mobility</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM348.TWWB.352</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM446.BSSN.562</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>HBM348.TWWB.352</t>
+          <t>HBM446.BSSN.562</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1611,14 +1032,14 @@
       <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM348.TWWB.352</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM446.BSSN.562</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>HBM348.TWWB.352</t>
+          <t>HBM446.BSSN.562</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1634,14 +1055,14 @@
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM348.TWWB.352</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM446.BSSN.562</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>HBM348.TWWB.352</t>
+          <t>HBM446.BSSN.562</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1657,14 +1078,14 @@
       <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM348.TWWB.352</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM446.BSSN.562</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>HBM348.TWWB.352</t>
+          <t>HBM446.BSSN.562</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1676,14 +1097,14 @@
       <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM348.TWWB.352</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM446.BSSN.562</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>HBM348.TWWB.352</t>
+          <t>HBM446.BSSN.562</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1695,423 +1116,411 @@
       <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM348.TWWB.352</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM446.BSSN.562</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>HBM446.BSSN.562</t>
+          <t>HBM454.BNCC.556</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>acquisition_instrument_model</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>Dionex; UltiMate 3000 RSLCnano UHPLC System</t>
-        </is>
-      </c>
+          <t>ion_mobility</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM446.BSSN.562</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM454.BNCC.556</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>HBM446.BSSN.562</t>
+          <t>HBM454.BNCC.556</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>ion_mobility</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr"/>
+          <t>lc_temperature_unit</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
       <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM446.BSSN.562</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM454.BNCC.556</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>HBM446.BSSN.562</t>
+          <t>HBM454.BNCC.556</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>lc_column_vendor</t>
+          <t>mass_analysis_polarity</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Self-packed</t>
+          <t>positive ion mode</t>
         </is>
       </c>
       <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM446.BSSN.562</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM454.BNCC.556</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>HBM446.BSSN.562</t>
+          <t>HBM454.BNCC.556</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>lc_temperature_unit</t>
+          <t>ms_scan_mode</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>MS/MS</t>
         </is>
       </c>
       <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM446.BSSN.562</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM454.BNCC.556</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>HBM446.BSSN.562</t>
+          <t>HBM454.BNCC.556</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>mass_analysis_polarity</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>positive ion mode</t>
-        </is>
-      </c>
+          <t>spatial_sampling_technique</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM446.BSSN.562</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM454.BNCC.556</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>HBM446.BSSN.562</t>
+          <t>HBM454.BNCC.556</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>ms_scan_mode</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>MS/MS</t>
-        </is>
-      </c>
+          <t>spatial_sampling_type</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr"/>
       <c r="E31" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM446.BSSN.562</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM454.BNCC.556</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>HBM446.BSSN.562</t>
+          <t>HBM454.FVCQ.632</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>spatial_sampling_technique</t>
+          <t>ion_mobility</t>
         </is>
       </c>
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr"/>
       <c r="E32" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM446.BSSN.562</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM454.FVCQ.632</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>HBM446.BSSN.562</t>
+          <t>HBM454.FVCQ.632</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>spatial_sampling_type</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr"/>
+          <t>lc_temperature_unit</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
       <c r="D33" t="inlineStr"/>
       <c r="E33" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM446.BSSN.562</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM454.FVCQ.632</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>HBM454.BNCC.556</t>
+          <t>HBM454.FVCQ.632</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>acquisition_instrument_model</t>
+          <t>mass_analysis_polarity</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Dionex; UltiMate 3000 RSLCnano UHPLC System</t>
+          <t>positive ion mode</t>
         </is>
       </c>
       <c r="D34" t="inlineStr"/>
       <c r="E34" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM454.BNCC.556</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM454.FVCQ.632</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>HBM454.BNCC.556</t>
+          <t>HBM454.FVCQ.632</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>ion_mobility</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr"/>
+          <t>ms_scan_mode</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>MS/MS</t>
+        </is>
+      </c>
       <c r="D35" t="inlineStr"/>
       <c r="E35" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM454.BNCC.556</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM454.FVCQ.632</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>HBM454.BNCC.556</t>
+          <t>HBM454.FVCQ.632</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>lc_column_vendor</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>Self-packed</t>
-        </is>
-      </c>
+          <t>spatial_sampling_technique</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr"/>
       <c r="D36" t="inlineStr"/>
       <c r="E36" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM454.BNCC.556</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM454.FVCQ.632</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>HBM454.BNCC.556</t>
+          <t>HBM454.FVCQ.632</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>lc_temperature_unit</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
+          <t>spatial_sampling_type</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr"/>
       <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM454.BNCC.556</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM454.FVCQ.632</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>HBM454.BNCC.556</t>
+          <t>HBM648.QVGL.995</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>mass_analysis_polarity</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>positive ion mode</t>
-        </is>
-      </c>
+          <t>ion_mobility</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr"/>
       <c r="D38" t="inlineStr"/>
       <c r="E38" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM454.BNCC.556</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM648.QVGL.995</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>HBM454.BNCC.556</t>
+          <t>HBM648.QVGL.995</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>ms_scan_mode</t>
+          <t>lc_temperature_unit</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>MS/MS</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D39" t="inlineStr"/>
       <c r="E39" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM454.BNCC.556</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM648.QVGL.995</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>HBM454.BNCC.556</t>
+          <t>HBM648.QVGL.995</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>spatial_sampling_technique</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr"/>
+          <t>mass_analysis_polarity</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>positive ion mode</t>
+        </is>
+      </c>
       <c r="D40" t="inlineStr"/>
       <c r="E40" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM454.BNCC.556</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM648.QVGL.995</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>HBM454.BNCC.556</t>
+          <t>HBM648.QVGL.995</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>spatial_sampling_type</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr"/>
+          <t>ms_scan_mode</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>MS/MS</t>
+        </is>
+      </c>
       <c r="D41" t="inlineStr"/>
       <c r="E41" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM454.BNCC.556</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM648.QVGL.995</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>HBM454.FVCQ.632</t>
+          <t>HBM648.QVGL.995</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>acquisition_instrument_model</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>Dionex; UltiMate 3000 RSLCnano UHPLC System</t>
-        </is>
-      </c>
+          <t>spatial_sampling_technique</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr"/>
       <c r="D42" t="inlineStr"/>
       <c r="E42" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM454.FVCQ.632</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM648.QVGL.995</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>HBM454.FVCQ.632</t>
+          <t>HBM648.QVGL.995</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>ion_mobility</t>
+          <t>spatial_sampling_type</t>
         </is>
       </c>
       <c r="C43" t="inlineStr"/>
       <c r="D43" t="inlineStr"/>
       <c r="E43" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM454.FVCQ.632</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM648.QVGL.995</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>HBM454.FVCQ.632</t>
+          <t>HBM755.LRFS.688</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>lc_column_vendor</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>Self-packed</t>
-        </is>
-      </c>
+          <t>ion_mobility</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr"/>
       <c r="D44" t="inlineStr"/>
       <c r="E44" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM454.FVCQ.632</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM755.LRFS.688</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>HBM454.FVCQ.632</t>
+          <t>HBM755.LRFS.688</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -2127,14 +1536,14 @@
       <c r="D45" t="inlineStr"/>
       <c r="E45" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM454.FVCQ.632</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM755.LRFS.688</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>HBM454.FVCQ.632</t>
+          <t>HBM755.LRFS.688</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -2150,14 +1559,14 @@
       <c r="D46" t="inlineStr"/>
       <c r="E46" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM454.FVCQ.632</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM755.LRFS.688</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>HBM454.FVCQ.632</t>
+          <t>HBM755.LRFS.688</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -2173,14 +1582,14 @@
       <c r="D47" t="inlineStr"/>
       <c r="E47" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM454.FVCQ.632</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM755.LRFS.688</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>HBM454.FVCQ.632</t>
+          <t>HBM755.LRFS.688</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -2192,14 +1601,14 @@
       <c r="D48" t="inlineStr"/>
       <c r="E48" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM454.FVCQ.632</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM755.LRFS.688</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>HBM454.FVCQ.632</t>
+          <t>HBM755.LRFS.688</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -2211,724 +1620,282 @@
       <c r="D49" t="inlineStr"/>
       <c r="E49" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM454.FVCQ.632</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM755.LRFS.688</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>HBM648.QVGL.995</t>
+          <t>HBM857.DKPM.277</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>acquisition_instrument_model</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>Dionex; UltiMate 3000 RSLCnano UHPLC System</t>
-        </is>
-      </c>
+          <t>ion_mobility</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr"/>
       <c r="D50" t="inlineStr"/>
       <c r="E50" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM648.QVGL.995</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM857.DKPM.277</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>HBM648.QVGL.995</t>
+          <t>HBM857.DKPM.277</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>ion_mobility</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr"/>
+          <t>lc_temperature_unit</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
       <c r="D51" t="inlineStr"/>
       <c r="E51" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM648.QVGL.995</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM857.DKPM.277</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>HBM648.QVGL.995</t>
+          <t>HBM857.DKPM.277</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>lc_column_vendor</t>
+          <t>mass_analysis_polarity</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Self-packed</t>
+          <t>positive ion mode</t>
         </is>
       </c>
       <c r="D52" t="inlineStr"/>
       <c r="E52" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM648.QVGL.995</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM857.DKPM.277</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>HBM648.QVGL.995</t>
+          <t>HBM857.DKPM.277</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>lc_temperature_unit</t>
+          <t>ms_scan_mode</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>MS/MS</t>
         </is>
       </c>
       <c r="D53" t="inlineStr"/>
       <c r="E53" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM648.QVGL.995</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM857.DKPM.277</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>HBM648.QVGL.995</t>
+          <t>HBM857.DKPM.277</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>mass_analysis_polarity</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>positive ion mode</t>
-        </is>
-      </c>
+          <t>spatial_sampling_technique</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr"/>
       <c r="D54" t="inlineStr"/>
       <c r="E54" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM648.QVGL.995</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM857.DKPM.277</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>HBM648.QVGL.995</t>
+          <t>HBM857.DKPM.277</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>ms_scan_mode</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>MS/MS</t>
-        </is>
-      </c>
+          <t>spatial_sampling_type</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr"/>
       <c r="D55" t="inlineStr"/>
       <c r="E55" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM648.QVGL.995</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM857.DKPM.277</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>HBM648.QVGL.995</t>
+          <t>HBM984.PSPF.676</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>spatial_sampling_technique</t>
+          <t>ion_mobility</t>
         </is>
       </c>
       <c r="C56" t="inlineStr"/>
       <c r="D56" t="inlineStr"/>
       <c r="E56" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM648.QVGL.995</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM984.PSPF.676</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>HBM648.QVGL.995</t>
+          <t>HBM984.PSPF.676</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>spatial_sampling_type</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr"/>
+          <t>lc_temperature_unit</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
       <c r="D57" t="inlineStr"/>
       <c r="E57" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM648.QVGL.995</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM984.PSPF.676</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>HBM755.LRFS.688</t>
+          <t>HBM984.PSPF.676</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>acquisition_instrument_model</t>
+          <t>mass_analysis_polarity</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Dionex; UltiMate 3000 RSLCnano UHPLC System</t>
+          <t>positive ion mode</t>
         </is>
       </c>
       <c r="D58" t="inlineStr"/>
       <c r="E58" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM755.LRFS.688</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM984.PSPF.676</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>HBM755.LRFS.688</t>
+          <t>HBM984.PSPF.676</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>ion_mobility</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr"/>
+          <t>ms_scan_mode</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>MS/MS</t>
+        </is>
+      </c>
       <c r="D59" t="inlineStr"/>
       <c r="E59" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM755.LRFS.688</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM984.PSPF.676</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>HBM755.LRFS.688</t>
+          <t>HBM984.PSPF.676</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>lc_column_vendor</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>Self-packed</t>
-        </is>
-      </c>
+          <t>spatial_sampling_technique</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr"/>
       <c r="D60" t="inlineStr"/>
       <c r="E60" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM755.LRFS.688</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM984.PSPF.676</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>HBM755.LRFS.688</t>
+          <t>HBM984.PSPF.676</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>lc_temperature_unit</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
+          <t>spatial_sampling_type</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr"/>
       <c r="D61" t="inlineStr"/>
       <c r="E61" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM755.LRFS.688</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>HBM755.LRFS.688</t>
-        </is>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>mass_analysis_polarity</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>positive ion mode</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr"/>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM755.LRFS.688</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>HBM755.LRFS.688</t>
-        </is>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>ms_scan_mode</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>MS/MS</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr"/>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM755.LRFS.688</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>HBM755.LRFS.688</t>
-        </is>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>spatial_sampling_technique</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr"/>
-      <c r="D64" t="inlineStr"/>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM755.LRFS.688</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>HBM755.LRFS.688</t>
-        </is>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>spatial_sampling_type</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr"/>
-      <c r="D65" t="inlineStr"/>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM755.LRFS.688</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>HBM857.DKPM.277</t>
-        </is>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>acquisition_instrument_model</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>Dionex; UltiMate 3000 RSLCnano UHPLC System</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr"/>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM857.DKPM.277</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>HBM857.DKPM.277</t>
-        </is>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>ion_mobility</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr"/>
-      <c r="D67" t="inlineStr"/>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM857.DKPM.277</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>HBM857.DKPM.277</t>
-        </is>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>lc_column_vendor</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>Self-packed</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr"/>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM857.DKPM.277</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>HBM857.DKPM.277</t>
-        </is>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>lc_temperature_unit</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr"/>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM857.DKPM.277</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>HBM857.DKPM.277</t>
-        </is>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>mass_analysis_polarity</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>positive ion mode</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr"/>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM857.DKPM.277</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>HBM857.DKPM.277</t>
-        </is>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>ms_scan_mode</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>MS/MS</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr"/>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM857.DKPM.277</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>HBM857.DKPM.277</t>
-        </is>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>spatial_sampling_technique</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr"/>
-      <c r="D72" t="inlineStr"/>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM857.DKPM.277</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>HBM857.DKPM.277</t>
-        </is>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>spatial_sampling_type</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr"/>
-      <c r="D73" t="inlineStr"/>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM857.DKPM.277</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>HBM984.PSPF.676</t>
-        </is>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>acquisition_instrument_model</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>Dionex; UltiMate 3000 RSLCnano UHPLC System</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr"/>
-      <c r="E74" t="inlineStr">
-        <is>
           <t>https://portal.hubmapconsortium.org/browse/HBM984.PSPF.676</t>
         </is>
       </c>
     </row>
-    <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>HBM984.PSPF.676</t>
-        </is>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>ion_mobility</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr"/>
-      <c r="D75" t="inlineStr"/>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM984.PSPF.676</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>HBM984.PSPF.676</t>
-        </is>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>lc_column_vendor</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>Self-packed</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr"/>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM984.PSPF.676</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>HBM984.PSPF.676</t>
-        </is>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>lc_temperature_unit</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr"/>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM984.PSPF.676</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>HBM984.PSPF.676</t>
-        </is>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>mass_analysis_polarity</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>positive ion mode</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr"/>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM984.PSPF.676</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>HBM984.PSPF.676</t>
-        </is>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>ms_scan_mode</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>MS/MS</t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr"/>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM984.PSPF.676</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>HBM984.PSPF.676</t>
-        </is>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>spatial_sampling_technique</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr"/>
-      <c r="D80" t="inlineStr"/>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM984.PSPF.676</t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t>HBM984.PSPF.676</t>
-        </is>
-      </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>spatial_sampling_type</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr"/>
-      <c r="D81" t="inlineStr"/>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM984.PSPF.676</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:E81"/>
-  <dataValidations count="8">
-    <dataValidation sqref="D2 D10 D18 D26 D34 D42 D50 D58 D66 D74" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
-      <formula1>_validation_data!$A$1:$A$77</formula1>
+  <autoFilter ref="A1:E61"/>
+  <dataValidations count="6">
+    <dataValidation sqref="D2 D8 D14 D20 D26 D32 D38 D44 D50 D56" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
+      <formula1>_validation_data!$A$1:$A$6</formula1>
     </dataValidation>
-    <dataValidation sqref="D3 D11 D19 D27 D35 D43 D51 D59 D67 D75" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
-      <formula1>_validation_data!$B$1:$B$6</formula1>
+    <dataValidation sqref="D3 D9 D15 D21 D27 D33 D39 D45 D51 D57" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
+      <formula1>_validation_data!$B$1:$B$1</formula1>
     </dataValidation>
-    <dataValidation sqref="D4 D12 D20 D28 D36 D44 D52 D60 D68 D76" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
-      <formula1>_validation_data!$C$1:$C$8</formula1>
+    <dataValidation sqref="D4 D10 D16 D22 D28 D34 D40 D46 D52 D58" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
+      <formula1>_validation_data!$C$1:$C$3</formula1>
     </dataValidation>
-    <dataValidation sqref="D5 D13 D21 D29 D37 D45 D53 D61 D69 D77" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
-      <formula1>_validation_data!$D$1:$D$1</formula1>
+    <dataValidation sqref="D5 D11 D17 D23 D29 D35 D41 D47 D53 D59" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
+      <formula1>_validation_data!$D$1:$D$3</formula1>
     </dataValidation>
-    <dataValidation sqref="D6 D14 D22 D30 D38 D46 D54 D62 D70 D78" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
-      <formula1>_validation_data!$E$1:$E$3</formula1>
+    <dataValidation sqref="D6 D12 D18 D24 D30 D36 D42 D48 D54 D60" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
+      <formula1>_validation_data!$F$1:$F$6</formula1>
     </dataValidation>
-    <dataValidation sqref="D7 D15 D23 D31 D39 D47 D55 D63 D71 D79" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
-      <formula1>_validation_data!$F$1:$F$3</formula1>
-    </dataValidation>
-    <dataValidation sqref="D8 D16 D24 D32 D40 D48 D56 D64 D72 D80" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
-      <formula1>_validation_data!$H$1:$H$6</formula1>
-    </dataValidation>
-    <dataValidation sqref="D9 D17 D25 D33 D41 D49 D57 D65 D73 D81" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
-      <formula1>_validation_data!$I$1:$I$2</formula1>
+    <dataValidation sqref="D7 D13 D19 D25 D31 D37 D43 D49 D55 D61" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
+      <formula1>_validation_data!$G$1:$G$2</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3335,7 +2302,7 @@
   <autoFilter ref="A1:D21"/>
   <dataValidations count="1">
     <dataValidation sqref="C2 C4 C6 C8 C10 C12 C14 C16 C18 C20" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
-      <formula1>_validation_data!$G$1:$G$5</formula1>
+      <formula1>_validation_data!$E$1:$E$5</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/metadata/lcms/todo/Northwestern RTI (LC-MS).xlsx
+++ b/metadata/lcms/todo/Northwestern RTI (LC-MS).xlsx
@@ -13,7 +13,7 @@
     <sheet name="Invalid Input Pattern" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Non-Standard Value'!$A$1:$E$61</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Non-Standard Value'!$A$1:$E$57</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Missing Required Value'!$A$1:$D$21</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Invalid Input Pattern'!$A$1:$F$11</definedName>
   </definedNames>
@@ -581,7 +581,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E61"/>
+  <dimension ref="A1:E57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -815,14 +815,10 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>ms_scan_mode</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>MS/MS</t>
-        </is>
-      </c>
+          <t>spatial_sampling_technique</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr">
         <is>
@@ -838,7 +834,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>spatial_sampling_technique</t>
+          <t>spatial_sampling_type</t>
         </is>
       </c>
       <c r="C12" t="inlineStr"/>
@@ -852,19 +848,19 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>HBM247.LBFP.935</t>
+          <t>HBM348.TWWB.352</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>spatial_sampling_type</t>
+          <t>ion_mobility</t>
         </is>
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM247.LBFP.935</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM348.TWWB.352</t>
         </is>
       </c>
     </row>
@@ -876,10 +872,14 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>ion_mobility</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr"/>
+          <t>lc_temperature_unit</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr">
         <is>
@@ -895,12 +895,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>lc_temperature_unit</t>
+          <t>mass_analysis_polarity</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>positive ion mode</t>
         </is>
       </c>
       <c r="D15" t="inlineStr"/>
@@ -918,12 +918,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>mass_analysis_polarity</t>
+          <t>ms_scan_mode</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>positive ion mode</t>
+          <t>MS/MS</t>
         </is>
       </c>
       <c r="D16" t="inlineStr"/>
@@ -941,14 +941,10 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>ms_scan_mode</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>MS/MS</t>
-        </is>
-      </c>
+          <t>spatial_sampling_technique</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr">
         <is>
@@ -964,7 +960,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>spatial_sampling_technique</t>
+          <t>spatial_sampling_type</t>
         </is>
       </c>
       <c r="C18" t="inlineStr"/>
@@ -978,19 +974,19 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>HBM348.TWWB.352</t>
+          <t>HBM446.BSSN.562</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>spatial_sampling_type</t>
+          <t>ion_mobility</t>
         </is>
       </c>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM348.TWWB.352</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM446.BSSN.562</t>
         </is>
       </c>
     </row>
@@ -1002,10 +998,14 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>ion_mobility</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr"/>
+          <t>lc_temperature_unit</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
       <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr">
         <is>
@@ -1021,12 +1021,12 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>lc_temperature_unit</t>
+          <t>mass_analysis_polarity</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>positive ion mode</t>
         </is>
       </c>
       <c r="D21" t="inlineStr"/>
@@ -1044,12 +1044,12 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>mass_analysis_polarity</t>
+          <t>ms_scan_mode</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>positive ion mode</t>
+          <t>MS/MS</t>
         </is>
       </c>
       <c r="D22" t="inlineStr"/>
@@ -1067,14 +1067,10 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>ms_scan_mode</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>MS/MS</t>
-        </is>
-      </c>
+          <t>spatial_sampling_technique</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr">
         <is>
@@ -1090,7 +1086,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>spatial_sampling_technique</t>
+          <t>spatial_sampling_type</t>
         </is>
       </c>
       <c r="C24" t="inlineStr"/>
@@ -1104,19 +1100,19 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>HBM446.BSSN.562</t>
+          <t>HBM454.BNCC.556</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>spatial_sampling_type</t>
+          <t>ion_mobility</t>
         </is>
       </c>
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM446.BSSN.562</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM454.BNCC.556</t>
         </is>
       </c>
     </row>
@@ -1128,10 +1124,14 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>ion_mobility</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr"/>
+          <t>lc_temperature_unit</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
       <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr">
         <is>
@@ -1147,12 +1147,12 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>lc_temperature_unit</t>
+          <t>mass_analysis_polarity</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>positive ion mode</t>
         </is>
       </c>
       <c r="D27" t="inlineStr"/>
@@ -1170,12 +1170,12 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>mass_analysis_polarity</t>
+          <t>ms_scan_mode</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>positive ion mode</t>
+          <t>MS/MS</t>
         </is>
       </c>
       <c r="D28" t="inlineStr"/>
@@ -1193,14 +1193,10 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>ms_scan_mode</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>MS/MS</t>
-        </is>
-      </c>
+          <t>spatial_sampling_technique</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr">
         <is>
@@ -1216,7 +1212,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>spatial_sampling_technique</t>
+          <t>spatial_sampling_type</t>
         </is>
       </c>
       <c r="C30" t="inlineStr"/>
@@ -1230,19 +1226,19 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>HBM454.BNCC.556</t>
+          <t>HBM454.FVCQ.632</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>spatial_sampling_type</t>
+          <t>ion_mobility</t>
         </is>
       </c>
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr"/>
       <c r="E31" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM454.BNCC.556</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM454.FVCQ.632</t>
         </is>
       </c>
     </row>
@@ -1254,10 +1250,14 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>ion_mobility</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr"/>
+          <t>lc_temperature_unit</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
       <c r="D32" t="inlineStr"/>
       <c r="E32" t="inlineStr">
         <is>
@@ -1273,12 +1273,12 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>lc_temperature_unit</t>
+          <t>mass_analysis_polarity</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>positive ion mode</t>
         </is>
       </c>
       <c r="D33" t="inlineStr"/>
@@ -1296,14 +1296,10 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>mass_analysis_polarity</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>positive ion mode</t>
-        </is>
-      </c>
+          <t>spatial_sampling_technique</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr"/>
       <c r="D34" t="inlineStr"/>
       <c r="E34" t="inlineStr">
         <is>
@@ -1319,14 +1315,10 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>ms_scan_mode</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>MS/MS</t>
-        </is>
-      </c>
+          <t>spatial_sampling_type</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr"/>
       <c r="D35" t="inlineStr"/>
       <c r="E35" t="inlineStr">
         <is>
@@ -1337,38 +1329,42 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>HBM454.FVCQ.632</t>
+          <t>HBM648.QVGL.995</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>spatial_sampling_technique</t>
+          <t>ion_mobility</t>
         </is>
       </c>
       <c r="C36" t="inlineStr"/>
       <c r="D36" t="inlineStr"/>
       <c r="E36" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM454.FVCQ.632</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM648.QVGL.995</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>HBM454.FVCQ.632</t>
+          <t>HBM648.QVGL.995</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>spatial_sampling_type</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr"/>
+          <t>lc_temperature_unit</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
       <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM454.FVCQ.632</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM648.QVGL.995</t>
         </is>
       </c>
     </row>
@@ -1380,10 +1376,14 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>ion_mobility</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr"/>
+          <t>mass_analysis_polarity</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>positive ion mode</t>
+        </is>
+      </c>
       <c r="D38" t="inlineStr"/>
       <c r="E38" t="inlineStr">
         <is>
@@ -1399,12 +1399,12 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>lc_temperature_unit</t>
+          <t>ms_scan_mode</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>MS/MS</t>
         </is>
       </c>
       <c r="D39" t="inlineStr"/>
@@ -1422,14 +1422,10 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>mass_analysis_polarity</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>positive ion mode</t>
-        </is>
-      </c>
+          <t>spatial_sampling_technique</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr"/>
       <c r="D40" t="inlineStr"/>
       <c r="E40" t="inlineStr">
         <is>
@@ -1445,14 +1441,10 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>ms_scan_mode</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>MS/MS</t>
-        </is>
-      </c>
+          <t>spatial_sampling_type</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr"/>
       <c r="D41" t="inlineStr"/>
       <c r="E41" t="inlineStr">
         <is>
@@ -1463,38 +1455,42 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>HBM648.QVGL.995</t>
+          <t>HBM755.LRFS.688</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>spatial_sampling_technique</t>
+          <t>ion_mobility</t>
         </is>
       </c>
       <c r="C42" t="inlineStr"/>
       <c r="D42" t="inlineStr"/>
       <c r="E42" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM648.QVGL.995</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM755.LRFS.688</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>HBM648.QVGL.995</t>
+          <t>HBM755.LRFS.688</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>spatial_sampling_type</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr"/>
+          <t>lc_temperature_unit</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
       <c r="D43" t="inlineStr"/>
       <c r="E43" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM648.QVGL.995</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM755.LRFS.688</t>
         </is>
       </c>
     </row>
@@ -1506,10 +1502,14 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>ion_mobility</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr"/>
+          <t>mass_analysis_polarity</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>positive ion mode</t>
+        </is>
+      </c>
       <c r="D44" t="inlineStr"/>
       <c r="E44" t="inlineStr">
         <is>
@@ -1525,14 +1525,10 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>lc_temperature_unit</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
+          <t>spatial_sampling_technique</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr"/>
       <c r="D45" t="inlineStr"/>
       <c r="E45" t="inlineStr">
         <is>
@@ -1548,14 +1544,10 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>mass_analysis_polarity</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>positive ion mode</t>
-        </is>
-      </c>
+          <t>spatial_sampling_type</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr"/>
       <c r="D46" t="inlineStr"/>
       <c r="E46" t="inlineStr">
         <is>
@@ -1566,61 +1558,65 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>HBM755.LRFS.688</t>
+          <t>HBM857.DKPM.277</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>ms_scan_mode</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>MS/MS</t>
-        </is>
-      </c>
+          <t>ion_mobility</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr"/>
       <c r="D47" t="inlineStr"/>
       <c r="E47" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM755.LRFS.688</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM857.DKPM.277</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>HBM755.LRFS.688</t>
+          <t>HBM857.DKPM.277</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>spatial_sampling_technique</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr"/>
+          <t>lc_temperature_unit</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
       <c r="D48" t="inlineStr"/>
       <c r="E48" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM755.LRFS.688</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM857.DKPM.277</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>HBM755.LRFS.688</t>
+          <t>HBM857.DKPM.277</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>spatial_sampling_type</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr"/>
+          <t>mass_analysis_polarity</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>positive ion mode</t>
+        </is>
+      </c>
       <c r="D49" t="inlineStr"/>
       <c r="E49" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM755.LRFS.688</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM857.DKPM.277</t>
         </is>
       </c>
     </row>
@@ -1632,7 +1628,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>ion_mobility</t>
+          <t>spatial_sampling_technique</t>
         </is>
       </c>
       <c r="C50" t="inlineStr"/>
@@ -1651,14 +1647,10 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>lc_temperature_unit</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
+          <t>spatial_sampling_type</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr"/>
       <c r="D51" t="inlineStr"/>
       <c r="E51" t="inlineStr">
         <is>
@@ -1669,84 +1661,88 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>HBM857.DKPM.277</t>
+          <t>HBM984.PSPF.676</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>mass_analysis_polarity</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>positive ion mode</t>
-        </is>
-      </c>
+          <t>ion_mobility</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr"/>
       <c r="D52" t="inlineStr"/>
       <c r="E52" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM857.DKPM.277</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM984.PSPF.676</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>HBM857.DKPM.277</t>
+          <t>HBM984.PSPF.676</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>ms_scan_mode</t>
+          <t>lc_temperature_unit</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>MS/MS</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D53" t="inlineStr"/>
       <c r="E53" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM857.DKPM.277</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM984.PSPF.676</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>HBM857.DKPM.277</t>
+          <t>HBM984.PSPF.676</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>spatial_sampling_technique</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr"/>
+          <t>mass_analysis_polarity</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>positive ion mode</t>
+        </is>
+      </c>
       <c r="D54" t="inlineStr"/>
       <c r="E54" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM857.DKPM.277</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM984.PSPF.676</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>HBM857.DKPM.277</t>
+          <t>HBM984.PSPF.676</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>spatial_sampling_type</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr"/>
+          <t>ms_scan_mode</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>MS/MS</t>
+        </is>
+      </c>
       <c r="D55" t="inlineStr"/>
       <c r="E55" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM857.DKPM.277</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM984.PSPF.676</t>
         </is>
       </c>
     </row>
@@ -1758,7 +1754,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>ion_mobility</t>
+          <t>spatial_sampling_technique</t>
         </is>
       </c>
       <c r="C56" t="inlineStr"/>
@@ -1777,14 +1773,10 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>lc_temperature_unit</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
+          <t>spatial_sampling_type</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr"/>
       <c r="D57" t="inlineStr"/>
       <c r="E57" t="inlineStr">
         <is>
@@ -1792,109 +1784,25 @@
         </is>
       </c>
     </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>HBM984.PSPF.676</t>
-        </is>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>mass_analysis_polarity</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>positive ion mode</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr"/>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM984.PSPF.676</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>HBM984.PSPF.676</t>
-        </is>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>ms_scan_mode</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>MS/MS</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr"/>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM984.PSPF.676</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>HBM984.PSPF.676</t>
-        </is>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>spatial_sampling_technique</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr"/>
-      <c r="D60" t="inlineStr"/>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM984.PSPF.676</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>HBM984.PSPF.676</t>
-        </is>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>spatial_sampling_type</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr"/>
-      <c r="D61" t="inlineStr"/>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM984.PSPF.676</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:E61"/>
+  <autoFilter ref="A1:E57"/>
   <dataValidations count="6">
-    <dataValidation sqref="D2 D8 D14 D20 D26 D32 D38 D44 D50 D56" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
+    <dataValidation sqref="D2 D8 D13 D19 D25 D31 D36 D42 D47 D52" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
       <formula1>_validation_data!$A$1:$A$6</formula1>
     </dataValidation>
-    <dataValidation sqref="D3 D9 D15 D21 D27 D33 D39 D45 D51 D57" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
+    <dataValidation sqref="D3 D9 D14 D20 D26 D32 D37 D43 D48 D53" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
       <formula1>_validation_data!$B$1:$B$1</formula1>
     </dataValidation>
-    <dataValidation sqref="D4 D10 D16 D22 D28 D34 D40 D46 D52 D58" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
+    <dataValidation sqref="D4 D10 D15 D21 D27 D33 D38 D44 D49 D54" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
       <formula1>_validation_data!$C$1:$C$3</formula1>
     </dataValidation>
-    <dataValidation sqref="D5 D11 D17 D23 D29 D35 D41 D47 D53 D59" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
+    <dataValidation sqref="D5 D16 D22 D28 D39 D55" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
       <formula1>_validation_data!$D$1:$D$3</formula1>
     </dataValidation>
-    <dataValidation sqref="D6 D12 D18 D24 D30 D36 D42 D48 D54 D60" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
+    <dataValidation sqref="D6 D11 D17 D23 D29 D34 D40 D45 D50 D56" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
       <formula1>_validation_data!$F$1:$F$6</formula1>
     </dataValidation>
-    <dataValidation sqref="D7 D13 D19 D25 D31 D37 D43 D49 D55 D61" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
+    <dataValidation sqref="D7 D12 D18 D24 D30 D35 D41 D46 D51 D57" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
       <formula1>_validation_data!$G$1:$G$2</formula1>
     </dataValidation>
   </dataValidations>

--- a/metadata/lcms/todo/Northwestern RTI (LC-MS).xlsx
+++ b/metadata/lcms/todo/Northwestern RTI (LC-MS).xlsx
@@ -13,7 +13,7 @@
     <sheet name="Invalid Input Pattern" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Non-Standard Value'!$A$1:$E$57</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Non-Standard Value'!$A$1:$E$47</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Missing Required Value'!$A$1:$D$21</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Invalid Input Pattern'!$A$1:$F$11</definedName>
   </definedNames>
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,30 +436,25 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>celsius</t>
+          <t>Negative ion mode</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>Negative ion mode</t>
+          <t>MS1</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>MS1</t>
+          <t>hour</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>hour</t>
+          <t>microPOTS</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
-        <is>
-          <t>microPOTS</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
         <is>
           <t>Profiling</t>
         </is>
@@ -471,27 +466,27 @@
           <t>TWIMS</t>
         </is>
       </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Positive ion mode</t>
+        </is>
+      </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Positive ion mode</t>
+          <t>MS3</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>MS3</t>
+          <t>month</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>month</t>
+          <t>nanoSPLITS</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
-        <is>
-          <t>nanoSPLITS</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
         <is>
           <t>Imaging</t>
         </is>
@@ -503,22 +498,22 @@
           <t>DTIMS</t>
         </is>
       </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Negative and positive ion mode</t>
+        </is>
+      </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Negative and positive ion mode</t>
+          <t>MS2</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>MS2</t>
+          <t>year</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
-        <is>
-          <t>year</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
         <is>
           <t>LESA</t>
         </is>
@@ -530,12 +525,12 @@
           <t>SLIM</t>
         </is>
       </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
       <c r="E4" t="inlineStr">
-        <is>
-          <t>day</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
         <is>
           <t>microLESA</t>
         </is>
@@ -547,12 +542,12 @@
           <t>TIMS</t>
         </is>
       </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>minute</t>
+        </is>
+      </c>
       <c r="E5" t="inlineStr">
-        <is>
-          <t>minute</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
         <is>
           <t>nanoPOTS</t>
         </is>
@@ -564,7 +559,7 @@
           <t>FAIMS</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>LCM</t>
         </is>
@@ -581,7 +576,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E57"/>
+  <dimension ref="A1:E47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -643,12 +638,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>lc_temperature_unit</t>
+          <t>mass_analysis_polarity</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>positive ion mode</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
@@ -666,12 +661,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>mass_analysis_polarity</t>
+          <t>ms_scan_mode</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>positive ion mode</t>
+          <t>MS/MS</t>
         </is>
       </c>
       <c r="D4" t="inlineStr"/>
@@ -689,14 +684,10 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ms_scan_mode</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>MS/MS</t>
-        </is>
-      </c>
+          <t>spatial_sampling_technique</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr">
         <is>
@@ -712,7 +703,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>spatial_sampling_technique</t>
+          <t>spatial_sampling_type</t>
         </is>
       </c>
       <c r="C6" t="inlineStr"/>
@@ -726,19 +717,19 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>HBM232.VMCT.877</t>
+          <t>HBM247.LBFP.935</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>spatial_sampling_type</t>
+          <t>ion_mobility</t>
         </is>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM232.VMCT.877</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM247.LBFP.935</t>
         </is>
       </c>
     </row>
@@ -750,10 +741,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ion_mobility</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr"/>
+          <t>mass_analysis_polarity</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>positive ion mode</t>
+        </is>
+      </c>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr">
         <is>
@@ -769,14 +764,10 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>lc_temperature_unit</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
+          <t>spatial_sampling_technique</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr">
         <is>
@@ -792,14 +783,10 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>mass_analysis_polarity</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>positive ion mode</t>
-        </is>
-      </c>
+          <t>spatial_sampling_type</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr">
         <is>
@@ -810,38 +797,42 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>HBM247.LBFP.935</t>
+          <t>HBM348.TWWB.352</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>spatial_sampling_technique</t>
+          <t>ion_mobility</t>
         </is>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM247.LBFP.935</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM348.TWWB.352</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>HBM247.LBFP.935</t>
+          <t>HBM348.TWWB.352</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>spatial_sampling_type</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr"/>
+          <t>mass_analysis_polarity</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>positive ion mode</t>
+        </is>
+      </c>
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM247.LBFP.935</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM348.TWWB.352</t>
         </is>
       </c>
     </row>
@@ -853,10 +844,14 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>ion_mobility</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr"/>
+          <t>ms_scan_mode</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>MS/MS</t>
+        </is>
+      </c>
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr">
         <is>
@@ -872,14 +867,10 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>lc_temperature_unit</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
+          <t>spatial_sampling_technique</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr">
         <is>
@@ -895,14 +886,10 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>mass_analysis_polarity</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>positive ion mode</t>
-        </is>
-      </c>
+          <t>spatial_sampling_type</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr">
         <is>
@@ -913,61 +900,65 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>HBM348.TWWB.352</t>
+          <t>HBM446.BSSN.562</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>ms_scan_mode</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>MS/MS</t>
-        </is>
-      </c>
+          <t>ion_mobility</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM348.TWWB.352</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM446.BSSN.562</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>HBM348.TWWB.352</t>
+          <t>HBM446.BSSN.562</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>spatial_sampling_technique</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr"/>
+          <t>mass_analysis_polarity</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>positive ion mode</t>
+        </is>
+      </c>
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM348.TWWB.352</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM446.BSSN.562</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>HBM348.TWWB.352</t>
+          <t>HBM446.BSSN.562</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>spatial_sampling_type</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr"/>
+          <t>ms_scan_mode</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>MS/MS</t>
+        </is>
+      </c>
       <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM348.TWWB.352</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM446.BSSN.562</t>
         </is>
       </c>
     </row>
@@ -979,7 +970,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>ion_mobility</t>
+          <t>spatial_sampling_technique</t>
         </is>
       </c>
       <c r="C19" t="inlineStr"/>
@@ -998,14 +989,10 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>lc_temperature_unit</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
+          <t>spatial_sampling_type</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr">
         <is>
@@ -1016,84 +1003,84 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>HBM446.BSSN.562</t>
+          <t>HBM454.BNCC.556</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>mass_analysis_polarity</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>positive ion mode</t>
-        </is>
-      </c>
+          <t>ion_mobility</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM446.BSSN.562</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM454.BNCC.556</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>HBM446.BSSN.562</t>
+          <t>HBM454.BNCC.556</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>ms_scan_mode</t>
+          <t>mass_analysis_polarity</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>MS/MS</t>
+          <t>positive ion mode</t>
         </is>
       </c>
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM446.BSSN.562</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM454.BNCC.556</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>HBM446.BSSN.562</t>
+          <t>HBM454.BNCC.556</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>spatial_sampling_technique</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr"/>
+          <t>ms_scan_mode</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>MS/MS</t>
+        </is>
+      </c>
       <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM446.BSSN.562</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM454.BNCC.556</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>HBM446.BSSN.562</t>
+          <t>HBM454.BNCC.556</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>spatial_sampling_type</t>
+          <t>spatial_sampling_technique</t>
         </is>
       </c>
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM446.BSSN.562</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM454.BNCC.556</t>
         </is>
       </c>
     </row>
@@ -1105,7 +1092,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>ion_mobility</t>
+          <t>spatial_sampling_type</t>
         </is>
       </c>
       <c r="C25" t="inlineStr"/>
@@ -1119,30 +1106,26 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>HBM454.BNCC.556</t>
+          <t>HBM454.FVCQ.632</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>lc_temperature_unit</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
+          <t>ion_mobility</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM454.BNCC.556</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM454.FVCQ.632</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>HBM454.BNCC.556</t>
+          <t>HBM454.FVCQ.632</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1158,346 +1141,334 @@
       <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM454.BNCC.556</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM454.FVCQ.632</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>HBM454.BNCC.556</t>
+          <t>HBM454.FVCQ.632</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>ms_scan_mode</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>MS/MS</t>
-        </is>
-      </c>
+          <t>spatial_sampling_technique</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM454.BNCC.556</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM454.FVCQ.632</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>HBM454.BNCC.556</t>
+          <t>HBM454.FVCQ.632</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>spatial_sampling_technique</t>
+          <t>spatial_sampling_type</t>
         </is>
       </c>
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM454.BNCC.556</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM454.FVCQ.632</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>HBM454.BNCC.556</t>
+          <t>HBM648.QVGL.995</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>spatial_sampling_type</t>
+          <t>ion_mobility</t>
         </is>
       </c>
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM454.BNCC.556</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM648.QVGL.995</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>HBM454.FVCQ.632</t>
+          <t>HBM648.QVGL.995</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>ion_mobility</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr"/>
+          <t>mass_analysis_polarity</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>positive ion mode</t>
+        </is>
+      </c>
       <c r="D31" t="inlineStr"/>
       <c r="E31" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM454.FVCQ.632</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM648.QVGL.995</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>HBM454.FVCQ.632</t>
+          <t>HBM648.QVGL.995</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>lc_temperature_unit</t>
+          <t>ms_scan_mode</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>MS/MS</t>
         </is>
       </c>
       <c r="D32" t="inlineStr"/>
       <c r="E32" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM454.FVCQ.632</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM648.QVGL.995</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>HBM454.FVCQ.632</t>
+          <t>HBM648.QVGL.995</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>mass_analysis_polarity</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>positive ion mode</t>
-        </is>
-      </c>
+          <t>spatial_sampling_technique</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr"/>
       <c r="D33" t="inlineStr"/>
       <c r="E33" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM454.FVCQ.632</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM648.QVGL.995</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>HBM454.FVCQ.632</t>
+          <t>HBM648.QVGL.995</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>spatial_sampling_technique</t>
+          <t>spatial_sampling_type</t>
         </is>
       </c>
       <c r="C34" t="inlineStr"/>
       <c r="D34" t="inlineStr"/>
       <c r="E34" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM454.FVCQ.632</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM648.QVGL.995</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>HBM454.FVCQ.632</t>
+          <t>HBM755.LRFS.688</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>spatial_sampling_type</t>
+          <t>ion_mobility</t>
         </is>
       </c>
       <c r="C35" t="inlineStr"/>
       <c r="D35" t="inlineStr"/>
       <c r="E35" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM454.FVCQ.632</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM755.LRFS.688</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>HBM648.QVGL.995</t>
+          <t>HBM755.LRFS.688</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>ion_mobility</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr"/>
+          <t>mass_analysis_polarity</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>positive ion mode</t>
+        </is>
+      </c>
       <c r="D36" t="inlineStr"/>
       <c r="E36" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM648.QVGL.995</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM755.LRFS.688</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>HBM648.QVGL.995</t>
+          <t>HBM755.LRFS.688</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>lc_temperature_unit</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
+          <t>spatial_sampling_technique</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr"/>
       <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM648.QVGL.995</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM755.LRFS.688</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>HBM648.QVGL.995</t>
+          <t>HBM755.LRFS.688</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>mass_analysis_polarity</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>positive ion mode</t>
-        </is>
-      </c>
+          <t>spatial_sampling_type</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr"/>
       <c r="D38" t="inlineStr"/>
       <c r="E38" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM648.QVGL.995</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM755.LRFS.688</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>HBM648.QVGL.995</t>
+          <t>HBM857.DKPM.277</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>ms_scan_mode</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>MS/MS</t>
-        </is>
-      </c>
+          <t>ion_mobility</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr"/>
       <c r="D39" t="inlineStr"/>
       <c r="E39" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM648.QVGL.995</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM857.DKPM.277</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>HBM648.QVGL.995</t>
+          <t>HBM857.DKPM.277</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>spatial_sampling_technique</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr"/>
+          <t>mass_analysis_polarity</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>positive ion mode</t>
+        </is>
+      </c>
       <c r="D40" t="inlineStr"/>
       <c r="E40" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM648.QVGL.995</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM857.DKPM.277</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>HBM648.QVGL.995</t>
+          <t>HBM857.DKPM.277</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>spatial_sampling_type</t>
+          <t>spatial_sampling_technique</t>
         </is>
       </c>
       <c r="C41" t="inlineStr"/>
       <c r="D41" t="inlineStr"/>
       <c r="E41" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM648.QVGL.995</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM857.DKPM.277</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>HBM755.LRFS.688</t>
+          <t>HBM857.DKPM.277</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>ion_mobility</t>
+          <t>spatial_sampling_type</t>
         </is>
       </c>
       <c r="C42" t="inlineStr"/>
       <c r="D42" t="inlineStr"/>
       <c r="E42" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM755.LRFS.688</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM857.DKPM.277</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>HBM755.LRFS.688</t>
+          <t>HBM984.PSPF.676</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>lc_temperature_unit</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
+          <t>ion_mobility</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr"/>
       <c r="D43" t="inlineStr"/>
       <c r="E43" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM755.LRFS.688</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM984.PSPF.676</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>HBM755.LRFS.688</t>
+          <t>HBM984.PSPF.676</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1513,297 +1484,88 @@
       <c r="D44" t="inlineStr"/>
       <c r="E44" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM755.LRFS.688</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM984.PSPF.676</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>HBM755.LRFS.688</t>
+          <t>HBM984.PSPF.676</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>spatial_sampling_technique</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr"/>
+          <t>ms_scan_mode</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>MS/MS</t>
+        </is>
+      </c>
       <c r="D45" t="inlineStr"/>
       <c r="E45" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM755.LRFS.688</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM984.PSPF.676</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>HBM755.LRFS.688</t>
+          <t>HBM984.PSPF.676</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>spatial_sampling_type</t>
+          <t>spatial_sampling_technique</t>
         </is>
       </c>
       <c r="C46" t="inlineStr"/>
       <c r="D46" t="inlineStr"/>
       <c r="E46" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM755.LRFS.688</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM984.PSPF.676</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>HBM857.DKPM.277</t>
+          <t>HBM984.PSPF.676</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>ion_mobility</t>
+          <t>spatial_sampling_type</t>
         </is>
       </c>
       <c r="C47" t="inlineStr"/>
       <c r="D47" t="inlineStr"/>
       <c r="E47" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM857.DKPM.277</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>HBM857.DKPM.277</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>lc_temperature_unit</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr"/>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM857.DKPM.277</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>HBM857.DKPM.277</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>mass_analysis_polarity</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>positive ion mode</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr"/>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM857.DKPM.277</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>HBM857.DKPM.277</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>spatial_sampling_technique</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr"/>
-      <c r="D50" t="inlineStr"/>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM857.DKPM.277</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>HBM857.DKPM.277</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>spatial_sampling_type</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr"/>
-      <c r="D51" t="inlineStr"/>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM857.DKPM.277</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>HBM984.PSPF.676</t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>ion_mobility</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr"/>
-      <c r="D52" t="inlineStr"/>
-      <c r="E52" t="inlineStr">
-        <is>
           <t>https://portal.hubmapconsortium.org/browse/HBM984.PSPF.676</t>
         </is>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>HBM984.PSPF.676</t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>lc_temperature_unit</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr"/>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM984.PSPF.676</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>HBM984.PSPF.676</t>
-        </is>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>mass_analysis_polarity</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>positive ion mode</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr"/>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM984.PSPF.676</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>HBM984.PSPF.676</t>
-        </is>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>ms_scan_mode</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>MS/MS</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr"/>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM984.PSPF.676</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>HBM984.PSPF.676</t>
-        </is>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>spatial_sampling_technique</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr"/>
-      <c r="D56" t="inlineStr"/>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM984.PSPF.676</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>HBM984.PSPF.676</t>
-        </is>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>spatial_sampling_type</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr"/>
-      <c r="D57" t="inlineStr"/>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM984.PSPF.676</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:E57"/>
-  <dataValidations count="6">
-    <dataValidation sqref="D2 D8 D13 D19 D25 D31 D36 D42 D47 D52" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
+  <autoFilter ref="A1:E47"/>
+  <dataValidations count="5">
+    <dataValidation sqref="D2 D7 D11 D16 D21 D26 D30 D35 D39 D43" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
       <formula1>_validation_data!$A$1:$A$6</formula1>
     </dataValidation>
-    <dataValidation sqref="D3 D9 D14 D20 D26 D32 D37 D43 D48 D53" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
-      <formula1>_validation_data!$B$1:$B$1</formula1>
+    <dataValidation sqref="D3 D8 D12 D17 D22 D27 D31 D36 D40 D44" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
+      <formula1>_validation_data!$B$1:$B$3</formula1>
     </dataValidation>
-    <dataValidation sqref="D4 D10 D15 D21 D27 D33 D38 D44 D49 D54" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
+    <dataValidation sqref="D4 D13 D18 D23 D32 D45" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
       <formula1>_validation_data!$C$1:$C$3</formula1>
     </dataValidation>
-    <dataValidation sqref="D5 D16 D22 D28 D39 D55" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
-      <formula1>_validation_data!$D$1:$D$3</formula1>
+    <dataValidation sqref="D5 D9 D14 D19 D24 D28 D33 D37 D41 D46" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
+      <formula1>_validation_data!$E$1:$E$6</formula1>
     </dataValidation>
-    <dataValidation sqref="D6 D11 D17 D23 D29 D34 D40 D45 D50 D56" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
-      <formula1>_validation_data!$F$1:$F$6</formula1>
-    </dataValidation>
-    <dataValidation sqref="D7 D12 D18 D24 D30 D35 D41 D46 D51 D57" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
-      <formula1>_validation_data!$G$1:$G$2</formula1>
+    <dataValidation sqref="D6 D10 D15 D20 D25 D29 D34 D38 D42 D47" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
+      <formula1>_validation_data!$F$1:$F$2</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2210,7 +1972,7 @@
   <autoFilter ref="A1:D21"/>
   <dataValidations count="1">
     <dataValidation sqref="C2 C4 C6 C8 C10 C12 C14 C16 C18 C20" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
-      <formula1>_validation_data!$E$1:$E$5</formula1>
+      <formula1>_validation_data!$D$1:$D$5</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/metadata/lcms/todo/Northwestern RTI (LC-MS).xlsx
+++ b/metadata/lcms/todo/Northwestern RTI (LC-MS).xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,7 +436,7 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>Negative ion mode</t>
+          <t>In-House</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
@@ -468,7 +468,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Positive ion mode</t>
+          <t>IonOpticks</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -500,7 +500,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Negative and positive ion mode</t>
+          <t>Evosep</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -525,6 +525,11 @@
           <t>SLIM</t>
         </is>
       </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Thermo Fisher Scientific</t>
+        </is>
+      </c>
       <c r="D4" t="inlineStr">
         <is>
           <t>day</t>
@@ -542,6 +547,11 @@
           <t>TIMS</t>
         </is>
       </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Agilent Technologies</t>
+        </is>
+      </c>
       <c r="D5" t="inlineStr">
         <is>
           <t>minute</t>
@@ -559,9 +569,28 @@
           <t>FAIMS</t>
         </is>
       </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Millipore</t>
+        </is>
+      </c>
       <c r="E6" t="inlineStr">
         <is>
           <t>LCM</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Bruker</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Waters</t>
         </is>
       </c>
     </row>
@@ -638,12 +667,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>mass_analysis_polarity</t>
+          <t>lc_column_vendor</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>positive ion mode</t>
+          <t>Self-packed</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
@@ -741,12 +770,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>mass_analysis_polarity</t>
+          <t>lc_column_vendor</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>positive ion mode</t>
+          <t>Self-packed</t>
         </is>
       </c>
       <c r="D8" t="inlineStr"/>
@@ -821,12 +850,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>mass_analysis_polarity</t>
+          <t>lc_column_vendor</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>positive ion mode</t>
+          <t>Self-packed</t>
         </is>
       </c>
       <c r="D12" t="inlineStr"/>
@@ -924,12 +953,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>mass_analysis_polarity</t>
+          <t>lc_column_vendor</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>positive ion mode</t>
+          <t>Self-packed</t>
         </is>
       </c>
       <c r="D17" t="inlineStr"/>
@@ -1027,12 +1056,12 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>mass_analysis_polarity</t>
+          <t>lc_column_vendor</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>positive ion mode</t>
+          <t>Self-packed</t>
         </is>
       </c>
       <c r="D22" t="inlineStr"/>
@@ -1130,12 +1159,12 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>mass_analysis_polarity</t>
+          <t>lc_column_vendor</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>positive ion mode</t>
+          <t>Self-packed</t>
         </is>
       </c>
       <c r="D27" t="inlineStr"/>
@@ -1210,12 +1239,12 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>mass_analysis_polarity</t>
+          <t>lc_column_vendor</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>positive ion mode</t>
+          <t>Self-packed</t>
         </is>
       </c>
       <c r="D31" t="inlineStr"/>
@@ -1313,12 +1342,12 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>mass_analysis_polarity</t>
+          <t>lc_column_vendor</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>positive ion mode</t>
+          <t>Self-packed</t>
         </is>
       </c>
       <c r="D36" t="inlineStr"/>
@@ -1393,12 +1422,12 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>mass_analysis_polarity</t>
+          <t>lc_column_vendor</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>positive ion mode</t>
+          <t>Self-packed</t>
         </is>
       </c>
       <c r="D40" t="inlineStr"/>
@@ -1473,12 +1502,12 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>mass_analysis_polarity</t>
+          <t>lc_column_vendor</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>positive ion mode</t>
+          <t>Self-packed</t>
         </is>
       </c>
       <c r="D44" t="inlineStr"/>
@@ -1556,7 +1585,7 @@
       <formula1>_validation_data!$A$1:$A$6</formula1>
     </dataValidation>
     <dataValidation sqref="D3 D8 D12 D17 D22 D27 D31 D36 D40 D44" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
-      <formula1>_validation_data!$B$1:$B$3</formula1>
+      <formula1>_validation_data!$B$1:$B$8</formula1>
     </dataValidation>
     <dataValidation sqref="D4 D13 D18 D23 D32 D45" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
       <formula1>_validation_data!$C$1:$C$3</formula1>

--- a/metadata/lcms/todo/Northwestern RTI (LC-MS).xlsx
+++ b/metadata/lcms/todo/Northwestern RTI (LC-MS).xlsx
@@ -13,7 +13,7 @@
     <sheet name="Invalid Input Pattern" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Non-Standard Value'!$A$1:$E$47</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Non-Standard Value'!$A$1:$E$37</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Missing Required Value'!$A$1:$D$21</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Invalid Input Pattern'!$A$1:$F$11</definedName>
   </definedNames>
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,25 +436,20 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>In-House</t>
+          <t>MS1</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>MS1</t>
+          <t>hour</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>hour</t>
+          <t>microPOTS</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
-        <is>
-          <t>microPOTS</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
         <is>
           <t>Profiling</t>
         </is>
@@ -468,25 +463,20 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>IonOpticks</t>
+          <t>MS3</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>MS3</t>
+          <t>month</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>month</t>
+          <t>nanoSPLITS</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
-        <is>
-          <t>nanoSPLITS</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
         <is>
           <t>Imaging</t>
         </is>
@@ -500,20 +490,15 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Evosep</t>
+          <t>MS2</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>MS2</t>
+          <t>year</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
-        <is>
-          <t>year</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
         <is>
           <t>LESA</t>
         </is>
@@ -525,17 +510,12 @@
           <t>SLIM</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Thermo Fisher Scientific</t>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>day</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
-        <is>
-          <t>day</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
         <is>
           <t>microLESA</t>
         </is>
@@ -547,17 +527,12 @@
           <t>TIMS</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Agilent Technologies</t>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>minute</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
-        <is>
-          <t>minute</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
         <is>
           <t>nanoPOTS</t>
         </is>
@@ -569,28 +544,9 @@
           <t>FAIMS</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Millipore</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>LCM</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Bruker</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Waters</t>
         </is>
       </c>
     </row>
@@ -605,7 +561,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E47"/>
+  <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -667,12 +623,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>lc_column_vendor</t>
+          <t>ms_scan_mode</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Self-packed</t>
+          <t>MS/MS</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
@@ -690,14 +646,10 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ms_scan_mode</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>MS/MS</t>
-        </is>
-      </c>
+          <t>spatial_sampling_technique</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr">
         <is>
@@ -713,7 +665,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>spatial_sampling_technique</t>
+          <t>spatial_sampling_type</t>
         </is>
       </c>
       <c r="C5" t="inlineStr"/>
@@ -727,19 +679,19 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HBM232.VMCT.877</t>
+          <t>HBM247.LBFP.935</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>spatial_sampling_type</t>
+          <t>ion_mobility</t>
         </is>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM232.VMCT.877</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM247.LBFP.935</t>
         </is>
       </c>
     </row>
@@ -751,7 +703,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ion_mobility</t>
+          <t>spatial_sampling_technique</t>
         </is>
       </c>
       <c r="C7" t="inlineStr"/>
@@ -770,14 +722,10 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>lc_column_vendor</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Self-packed</t>
-        </is>
-      </c>
+          <t>spatial_sampling_type</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr">
         <is>
@@ -788,38 +736,42 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>HBM247.LBFP.935</t>
+          <t>HBM348.TWWB.352</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>spatial_sampling_technique</t>
+          <t>ion_mobility</t>
         </is>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM247.LBFP.935</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM348.TWWB.352</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>HBM247.LBFP.935</t>
+          <t>HBM348.TWWB.352</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>spatial_sampling_type</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr"/>
+          <t>ms_scan_mode</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>MS/MS</t>
+        </is>
+      </c>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM247.LBFP.935</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM348.TWWB.352</t>
         </is>
       </c>
     </row>
@@ -831,7 +783,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>ion_mobility</t>
+          <t>spatial_sampling_technique</t>
         </is>
       </c>
       <c r="C11" t="inlineStr"/>
@@ -850,14 +802,10 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>lc_column_vendor</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Self-packed</t>
-        </is>
-      </c>
+          <t>spatial_sampling_type</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr">
         <is>
@@ -868,61 +816,61 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>HBM348.TWWB.352</t>
+          <t>HBM446.BSSN.562</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>ms_scan_mode</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>MS/MS</t>
-        </is>
-      </c>
+          <t>ion_mobility</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM348.TWWB.352</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM446.BSSN.562</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>HBM348.TWWB.352</t>
+          <t>HBM446.BSSN.562</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>spatial_sampling_technique</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr"/>
+          <t>ms_scan_mode</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>MS/MS</t>
+        </is>
+      </c>
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM348.TWWB.352</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM446.BSSN.562</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>HBM348.TWWB.352</t>
+          <t>HBM446.BSSN.562</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>spatial_sampling_type</t>
+          <t>spatial_sampling_technique</t>
         </is>
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM348.TWWB.352</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM446.BSSN.562</t>
         </is>
       </c>
     </row>
@@ -934,7 +882,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>ion_mobility</t>
+          <t>spatial_sampling_type</t>
         </is>
       </c>
       <c r="C16" t="inlineStr"/>
@@ -948,30 +896,26 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>HBM446.BSSN.562</t>
+          <t>HBM454.BNCC.556</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>lc_column_vendor</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>Self-packed</t>
-        </is>
-      </c>
+          <t>ion_mobility</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM446.BSSN.562</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM454.BNCC.556</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>HBM446.BSSN.562</t>
+          <t>HBM454.BNCC.556</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -987,14 +931,14 @@
       <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM446.BSSN.562</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM454.BNCC.556</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>HBM446.BSSN.562</t>
+          <t>HBM454.BNCC.556</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1006,14 +950,14 @@
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM446.BSSN.562</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM454.BNCC.556</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>HBM446.BSSN.562</t>
+          <t>HBM454.BNCC.556</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1025,14 +969,14 @@
       <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM446.BSSN.562</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM454.BNCC.556</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>HBM454.BNCC.556</t>
+          <t>HBM454.FVCQ.632</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1044,557 +988,336 @@
       <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM454.BNCC.556</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM454.FVCQ.632</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>HBM454.BNCC.556</t>
+          <t>HBM454.FVCQ.632</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>lc_column_vendor</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>Self-packed</t>
-        </is>
-      </c>
+          <t>spatial_sampling_technique</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM454.BNCC.556</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM454.FVCQ.632</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>HBM454.BNCC.556</t>
+          <t>HBM454.FVCQ.632</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>ms_scan_mode</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>MS/MS</t>
-        </is>
-      </c>
+          <t>spatial_sampling_type</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM454.BNCC.556</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM454.FVCQ.632</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>HBM454.BNCC.556</t>
+          <t>HBM648.QVGL.995</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>spatial_sampling_technique</t>
+          <t>ion_mobility</t>
         </is>
       </c>
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM454.BNCC.556</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM648.QVGL.995</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>HBM454.BNCC.556</t>
+          <t>HBM648.QVGL.995</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>spatial_sampling_type</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr"/>
+          <t>ms_scan_mode</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>MS/MS</t>
+        </is>
+      </c>
       <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM454.BNCC.556</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM648.QVGL.995</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>HBM454.FVCQ.632</t>
+          <t>HBM648.QVGL.995</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>ion_mobility</t>
+          <t>spatial_sampling_technique</t>
         </is>
       </c>
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM454.FVCQ.632</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM648.QVGL.995</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>HBM454.FVCQ.632</t>
+          <t>HBM648.QVGL.995</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>lc_column_vendor</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>Self-packed</t>
-        </is>
-      </c>
+          <t>spatial_sampling_type</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM454.FVCQ.632</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM648.QVGL.995</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>HBM454.FVCQ.632</t>
+          <t>HBM755.LRFS.688</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>spatial_sampling_technique</t>
+          <t>ion_mobility</t>
         </is>
       </c>
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM454.FVCQ.632</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM755.LRFS.688</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>HBM454.FVCQ.632</t>
+          <t>HBM755.LRFS.688</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>spatial_sampling_type</t>
+          <t>spatial_sampling_technique</t>
         </is>
       </c>
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM454.FVCQ.632</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM755.LRFS.688</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>HBM648.QVGL.995</t>
+          <t>HBM755.LRFS.688</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>ion_mobility</t>
+          <t>spatial_sampling_type</t>
         </is>
       </c>
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM648.QVGL.995</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM755.LRFS.688</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>HBM648.QVGL.995</t>
+          <t>HBM857.DKPM.277</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>lc_column_vendor</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>Self-packed</t>
-        </is>
-      </c>
+          <t>ion_mobility</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr"/>
       <c r="E31" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM648.QVGL.995</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM857.DKPM.277</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>HBM648.QVGL.995</t>
+          <t>HBM857.DKPM.277</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>ms_scan_mode</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>MS/MS</t>
-        </is>
-      </c>
+          <t>spatial_sampling_technique</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr"/>
       <c r="E32" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM648.QVGL.995</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM857.DKPM.277</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>HBM648.QVGL.995</t>
+          <t>HBM857.DKPM.277</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>spatial_sampling_technique</t>
+          <t>spatial_sampling_type</t>
         </is>
       </c>
       <c r="C33" t="inlineStr"/>
       <c r="D33" t="inlineStr"/>
       <c r="E33" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM648.QVGL.995</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM857.DKPM.277</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>HBM648.QVGL.995</t>
+          <t>HBM984.PSPF.676</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>spatial_sampling_type</t>
+          <t>ion_mobility</t>
         </is>
       </c>
       <c r="C34" t="inlineStr"/>
       <c r="D34" t="inlineStr"/>
       <c r="E34" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM648.QVGL.995</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM984.PSPF.676</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>HBM755.LRFS.688</t>
+          <t>HBM984.PSPF.676</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>ion_mobility</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr"/>
+          <t>ms_scan_mode</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>MS/MS</t>
+        </is>
+      </c>
       <c r="D35" t="inlineStr"/>
       <c r="E35" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM755.LRFS.688</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM984.PSPF.676</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>HBM755.LRFS.688</t>
+          <t>HBM984.PSPF.676</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>lc_column_vendor</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>Self-packed</t>
-        </is>
-      </c>
+          <t>spatial_sampling_technique</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr"/>
       <c r="D36" t="inlineStr"/>
       <c r="E36" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM755.LRFS.688</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM984.PSPF.676</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>HBM755.LRFS.688</t>
+          <t>HBM984.PSPF.676</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>spatial_sampling_technique</t>
+          <t>spatial_sampling_type</t>
         </is>
       </c>
       <c r="C37" t="inlineStr"/>
       <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM755.LRFS.688</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>HBM755.LRFS.688</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>spatial_sampling_type</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr"/>
-      <c r="D38" t="inlineStr"/>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM755.LRFS.688</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>HBM857.DKPM.277</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>ion_mobility</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr"/>
-      <c r="D39" t="inlineStr"/>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM857.DKPM.277</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>HBM857.DKPM.277</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>lc_column_vendor</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>Self-packed</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr"/>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM857.DKPM.277</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>HBM857.DKPM.277</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>spatial_sampling_technique</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr"/>
-      <c r="D41" t="inlineStr"/>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM857.DKPM.277</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>HBM857.DKPM.277</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>spatial_sampling_type</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr"/>
-      <c r="D42" t="inlineStr"/>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM857.DKPM.277</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>HBM984.PSPF.676</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>ion_mobility</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr"/>
-      <c r="D43" t="inlineStr"/>
-      <c r="E43" t="inlineStr">
-        <is>
           <t>https://portal.hubmapconsortium.org/browse/HBM984.PSPF.676</t>
         </is>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>HBM984.PSPF.676</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>lc_column_vendor</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>Self-packed</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr"/>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM984.PSPF.676</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>HBM984.PSPF.676</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>ms_scan_mode</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>MS/MS</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr"/>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM984.PSPF.676</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>HBM984.PSPF.676</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>spatial_sampling_technique</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr"/>
-      <c r="D46" t="inlineStr"/>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM984.PSPF.676</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>HBM984.PSPF.676</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>spatial_sampling_type</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr"/>
-      <c r="D47" t="inlineStr"/>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM984.PSPF.676</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:E47"/>
-  <dataValidations count="5">
-    <dataValidation sqref="D2 D7 D11 D16 D21 D26 D30 D35 D39 D43" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
+  <autoFilter ref="A1:E37"/>
+  <dataValidations count="4">
+    <dataValidation sqref="D2 D6 D9 D13 D17 D21 D24 D28 D31 D34" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
       <formula1>_validation_data!$A$1:$A$6</formula1>
     </dataValidation>
-    <dataValidation sqref="D3 D8 D12 D17 D22 D27 D31 D36 D40 D44" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
-      <formula1>_validation_data!$B$1:$B$8</formula1>
+    <dataValidation sqref="D3 D10 D14 D18 D25 D35" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
+      <formula1>_validation_data!$B$1:$B$3</formula1>
     </dataValidation>
-    <dataValidation sqref="D4 D13 D18 D23 D32 D45" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
-      <formula1>_validation_data!$C$1:$C$3</formula1>
+    <dataValidation sqref="D4 D7 D11 D15 D19 D22 D26 D29 D32 D36" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
+      <formula1>_validation_data!$D$1:$D$6</formula1>
     </dataValidation>
-    <dataValidation sqref="D5 D9 D14 D19 D24 D28 D33 D37 D41 D46" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
-      <formula1>_validation_data!$E$1:$E$6</formula1>
-    </dataValidation>
-    <dataValidation sqref="D6 D10 D15 D20 D25 D29 D34 D38 D42 D47" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
-      <formula1>_validation_data!$F$1:$F$2</formula1>
+    <dataValidation sqref="D5 D8 D12 D16 D20 D23 D27 D30 D33 D37" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
+      <formula1>_validation_data!$E$1:$E$2</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2001,7 +1724,7 @@
   <autoFilter ref="A1:D21"/>
   <dataValidations count="1">
     <dataValidation sqref="C2 C4 C6 C8 C10 C12 C14 C16 C18 C20" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
-      <formula1>_validation_data!$D$1:$D$5</formula1>
+      <formula1>_validation_data!$C$1:$C$5</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
